--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -161,76 +161,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_branch.xlsx
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>71.78826692943711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>71.7882669294371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1063,22 +1063,22 @@
         <v>0.9526279648047552</v>
       </c>
       <c r="AL2">
-        <v>-4.010262066734339E-12</v>
+        <v>7.100341988099845E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999793</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999858</v>
       </c>
       <c r="AO2">
-        <v>-1.246628885272961E-11</v>
+        <v>5.400307135557078E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1194,22 +1194,22 @@
         <v>0.9526279648047552</v>
       </c>
       <c r="AL3">
-        <v>-1.465558576747149E-11</v>
+        <v>4.077258211264359E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999479</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999518</v>
       </c>
       <c r="AO3">
-        <v>-1.246628885272961E-11</v>
+        <v>5.400307135557078E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1325,22 +1325,22 @@
         <v>0.9526279648047552</v>
       </c>
       <c r="AL4">
-        <v>-1.464887965933316E-11</v>
+        <v>4.235678099021902E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999479</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO4">
-        <v>-1.246628885272961E-11</v>
+        <v>5.400307135557078E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
   </sheetData>
@@ -1600,22 +1600,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293678</v>
+        <v>2.594692874650617E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769573</v>
+        <v>122.4159013159207</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943077</v>
+        <v>2.191965202687454E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1731,22 +1731,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL3">
-        <v>14.8258834207528</v>
+        <v>1.866433575455782E-13</v>
       </c>
       <c r="AM3">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN3">
-        <v>163.1035456589491</v>
+        <v>133.0893358579405</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943077</v>
+        <v>2.191965202687454E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1862,22 +1862,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL4">
-        <v>14.8258834207528</v>
+        <v>1.920934498077301E-13</v>
       </c>
       <c r="AM4">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN4">
-        <v>163.1035456589491</v>
+        <v>133.0893358579404</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943077</v>
+        <v>2.191965202687454E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
   </sheetData>
@@ -2137,22 +2137,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293678</v>
+        <v>2.594692874650617E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646633</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769573</v>
+        <v>122.4159013159207</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943077</v>
+        <v>2.191965202687454E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2268,22 +2268,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL3">
-        <v>14.8258834207528</v>
+        <v>1.866433575455782E-13</v>
       </c>
       <c r="AM3">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN3">
-        <v>163.1035456589491</v>
+        <v>133.0893358579405</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943077</v>
+        <v>2.191965202687454E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2399,22 +2399,22 @@
         <v>0.9229411060011535</v>
       </c>
       <c r="AL4">
-        <v>14.8258834207528</v>
+        <v>1.920934498077301E-13</v>
       </c>
       <c r="AM4">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192862</v>
       </c>
       <c r="AN4">
-        <v>163.1035456589491</v>
+        <v>133.0893358579404</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943077</v>
+        <v>2.191965202687454E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279577</v>
       </c>
     </row>
   </sheetData>
@@ -2674,22 +2674,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL2">
-        <v>3.075509240300286E-11</v>
+        <v>7.2703997191632E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.9999999998949</v>
       </c>
       <c r="AO2">
-        <v>1.722886870138309E-10</v>
+        <v>4.836847457647291E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2805,22 +2805,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL3">
-        <v>1.933054314938531E-10</v>
+        <v>3.304768388060126E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994135</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO3">
-        <v>1.722886870138309E-10</v>
+        <v>4.836847457647291E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2936,22 +2936,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL4">
-        <v>1.93318334252796E-10</v>
+        <v>3.307476491316185E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994134</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO4">
-        <v>1.722886870138309E-10</v>
+        <v>4.836847457647291E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
   </sheetData>
@@ -3211,22 +3211,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL2">
-        <v>3.075509240300286E-11</v>
+        <v>7.2703997191632E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999019</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.9999999998949</v>
       </c>
       <c r="AO2">
-        <v>1.722886870138309E-10</v>
+        <v>4.836847457647291E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3342,22 +3342,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL3">
-        <v>1.933054314938531E-10</v>
+        <v>3.304768388060126E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994135</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO3">
-        <v>1.722886870138309E-10</v>
+        <v>4.836847457647291E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3473,22 +3473,22 @@
         <v>0.8660254037883337</v>
       </c>
       <c r="AL4">
-        <v>1.93318334252796E-10</v>
+        <v>3.307476491316185E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994134</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO4">
-        <v>1.722886870138309E-10</v>
+        <v>4.836847457647291E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999994768</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998194</v>
+        <v>179.999999999472</v>
       </c>
     </row>
   </sheetData>
@@ -3748,22 +3748,22 @@
         <v>0.8529812840863312</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536515</v>
+        <v>2.90237442368646E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758097</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546082</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155593</v>
+        <v>2.15386192807484E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3879,22 +3879,22 @@
         <v>0.8529812840863312</v>
       </c>
       <c r="AL3">
-        <v>14.31307774380566</v>
+        <v>1.628916501490903E-13</v>
       </c>
       <c r="AM3">
-        <v>-97.89113682127689</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN3">
-        <v>164.6472678684481</v>
+        <v>138.2820504968733</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155593</v>
+        <v>2.15386192807484E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4010,22 +4010,22 @@
         <v>0.8529812840863312</v>
       </c>
       <c r="AL4">
-        <v>14.31307774380566</v>
+        <v>1.676833193653677E-13</v>
       </c>
       <c r="AM4">
-        <v>-97.8911368212769</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN4">
-        <v>164.6472678684481</v>
+        <v>138.2820504968733</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155593</v>
+        <v>2.15386192807484E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
   </sheetData>
@@ -4285,22 +4285,22 @@
         <v>0.8529812840863312</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536515</v>
+        <v>2.90237442368646E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758097</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546082</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155593</v>
+        <v>2.15386192807484E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4416,22 +4416,22 @@
         <v>0.8529812840863312</v>
       </c>
       <c r="AL3">
-        <v>14.31307774380566</v>
+        <v>1.628916501490903E-13</v>
       </c>
       <c r="AM3">
-        <v>-97.89113682127689</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN3">
-        <v>164.6472678684481</v>
+        <v>138.2820504968733</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155593</v>
+        <v>2.15386192807484E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4547,22 +4547,22 @@
         <v>0.8529812840863312</v>
       </c>
       <c r="AL4">
-        <v>14.31307774380566</v>
+        <v>1.676833193653677E-13</v>
       </c>
       <c r="AM4">
-        <v>-97.8911368212769</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN4">
-        <v>164.6472678684481</v>
+        <v>138.2820504968733</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155593</v>
+        <v>2.15386192807484E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979142</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.6989175372502</v>
       </c>
     </row>
   </sheetData>
@@ -4822,22 +4822,22 @@
         <v>0.7580900664245824</v>
       </c>
       <c r="AL2">
-        <v>-0.02683260972620329</v>
+        <v>-0.02683261092834746</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9731673889169</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-10.9913125124434</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>169.0086874874627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4953,22 +4953,22 @@
         <v>0.7580900664245824</v>
       </c>
       <c r="AL3">
-        <v>-7.597588371982598</v>
+        <v>-7.597588372061134</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>172.4024116279919</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-10.9913125124434</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>169.0086874874627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5084,22 +5084,22 @@
         <v>0.7580900664245824</v>
       </c>
       <c r="AL4">
-        <v>-7.597588371982567</v>
+        <v>-7.59758837206113</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>172.4024116279919</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-10.9913125124434</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>169.0086874874627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5359,22 +5359,22 @@
         <v>0.7580900664245824</v>
       </c>
       <c r="AL2">
-        <v>-0.02683260972620329</v>
+        <v>-0.02683261092834746</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9731673889169</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-10.9913125124434</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>169.0086874874627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5490,22 +5490,22 @@
         <v>0.7580900664245824</v>
       </c>
       <c r="AL3">
-        <v>-7.597588371982598</v>
+        <v>-7.597588372061134</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>172.4024116279919</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-10.9913125124434</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>169.0086874874627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5621,22 +5621,22 @@
         <v>0.7580900664245824</v>
       </c>
       <c r="AL4">
-        <v>-7.597588371982567</v>
+        <v>-7.59758837206113</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>172.4024116279919</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-10.9913125124434</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>169.0086874874627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5896,22 +5896,22 @@
         <v>0.9264810374263683</v>
       </c>
       <c r="AL2">
-        <v>21.5116854508782</v>
+        <v>-2.047021704634401</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163395943</v>
+        <v>-131.3437653417182</v>
       </c>
       <c r="AN2">
-        <v>149.0209319720996</v>
+        <v>113.278029361874</v>
       </c>
       <c r="AO2">
-        <v>20.15794956472948</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390013438</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ2">
-        <v>151.3913887327441</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6027,22 +6027,22 @@
         <v>0.9264810374263683</v>
       </c>
       <c r="AL3">
-        <v>18.897350790559</v>
+        <v>-4.775555041063019</v>
       </c>
       <c r="AM3">
-        <v>-99.08615255179105</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN3">
-        <v>153.3575306380652</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO3">
-        <v>20.15794956472948</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390013438</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ3">
-        <v>151.3913887327441</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6158,22 +6158,22 @@
         <v>0.9264810374263683</v>
       </c>
       <c r="AL4">
-        <v>18.897350790559</v>
+        <v>-4.775555041063012</v>
       </c>
       <c r="AM4">
-        <v>-99.08615255179105</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN4">
-        <v>153.3575306380652</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO4">
-        <v>20.15794956472948</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390013438</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ4">
-        <v>151.3913887327441</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
   </sheetData>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6342,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>71.78826692943711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>71.7882669294371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6658,22 +6658,22 @@
         <v>0.9264810374263683</v>
       </c>
       <c r="AL2">
-        <v>21.5116854508782</v>
+        <v>-2.047021704634401</v>
       </c>
       <c r="AM2">
-        <v>-100.0510163395943</v>
+        <v>-131.3437653417182</v>
       </c>
       <c r="AN2">
-        <v>149.0209319720996</v>
+        <v>113.278029361874</v>
       </c>
       <c r="AO2">
-        <v>20.15794956472948</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390013438</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ2">
-        <v>151.3913887327441</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6789,22 +6789,22 @@
         <v>0.9264810374263683</v>
       </c>
       <c r="AL3">
-        <v>18.897350790559</v>
+        <v>-4.775555041063019</v>
       </c>
       <c r="AM3">
-        <v>-99.08615255179105</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN3">
-        <v>153.3575306380652</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO3">
-        <v>20.15794956472948</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390013438</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ3">
-        <v>151.3913887327441</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6920,22 +6920,22 @@
         <v>0.9264810374263683</v>
       </c>
       <c r="AL4">
-        <v>18.897350790559</v>
+        <v>-4.775555041063012</v>
       </c>
       <c r="AM4">
-        <v>-99.08615255179105</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN4">
-        <v>153.3575306380652</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO4">
-        <v>20.15794956472948</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390013438</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ4">
-        <v>151.3913887327441</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
   </sheetData>
@@ -7195,22 +7195,22 @@
         <v>0.7567045212037672</v>
       </c>
       <c r="AL2">
-        <v>-0.0704307420429455</v>
+        <v>-0.07043074203077801</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.929569257136</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.312073893177622</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.6879261063769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7326,22 +7326,22 @@
         <v>0.7567045212037672</v>
       </c>
       <c r="AL3">
-        <v>-5.141094698590205</v>
+        <v>-5.141094698820867</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>174.8589053009605</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.312073893177622</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.6879261063769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7457,22 +7457,22 @@
         <v>0.7567045212037672</v>
       </c>
       <c r="AL4">
-        <v>-5.141094698590184</v>
+        <v>-5.141094698820842</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>174.8589053009605</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.312073893177622</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.6879261063769</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7732,22 +7732,22 @@
         <v>0.7567045212037672</v>
       </c>
       <c r="AL2">
-        <v>-0.0704307420429455</v>
+        <v>-0.07043074203077801</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.929569257136</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.312073893177622</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>171.6879261063769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7863,22 +7863,22 @@
         <v>0.7567045212037672</v>
       </c>
       <c r="AL3">
-        <v>-5.141094698590205</v>
+        <v>-5.141094698820867</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>174.8589053009605</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-8.312073893177622</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>171.6879261063769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7994,22 +7994,22 @@
         <v>0.7567045212037672</v>
       </c>
       <c r="AL4">
-        <v>-5.141094698590184</v>
+        <v>-5.141094698820842</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>174.8589053009605</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-8.312073893177622</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>171.6879261063769</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8269,22 +8269,22 @@
         <v>0.8514129462775721</v>
       </c>
       <c r="AL2">
-        <v>21.20494723733822</v>
+        <v>-2.070858898527459</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966787053</v>
+        <v>-131.7373295207326</v>
       </c>
       <c r="AN2">
-        <v>149.0426517080645</v>
+        <v>112.9875977716212</v>
       </c>
       <c r="AO2">
-        <v>19.90061784524741</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507043144</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ2">
-        <v>152.9264757634079</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8400,22 +8400,22 @@
         <v>0.8514129462775721</v>
       </c>
       <c r="AL3">
-        <v>18.6039434716845</v>
+        <v>-5.292660328418042</v>
       </c>
       <c r="AM3">
-        <v>-95.39765209812421</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN3">
-        <v>155.7752070444128</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO3">
-        <v>19.90061784524741</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507043144</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ3">
-        <v>152.9264757634079</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8531,22 +8531,22 @@
         <v>0.8514129462775721</v>
       </c>
       <c r="AL4">
-        <v>18.6039434716845</v>
+        <v>-5.292660328418039</v>
       </c>
       <c r="AM4">
-        <v>-95.39765209812421</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN4">
-        <v>155.7752070444128</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO4">
-        <v>19.90061784524741</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507043144</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ4">
-        <v>152.9264757634079</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
   </sheetData>
@@ -8806,22 +8806,22 @@
         <v>0.8514129462775721</v>
       </c>
       <c r="AL2">
-        <v>21.20494723733822</v>
+        <v>-2.070858898527459</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966787053</v>
+        <v>-131.7373295207326</v>
       </c>
       <c r="AN2">
-        <v>149.0426517080645</v>
+        <v>112.9875977716212</v>
       </c>
       <c r="AO2">
-        <v>19.90061784524741</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507043144</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ2">
-        <v>152.9264757634079</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8937,22 +8937,22 @@
         <v>0.8514129462775721</v>
       </c>
       <c r="AL3">
-        <v>18.6039434716845</v>
+        <v>-5.292660328418042</v>
       </c>
       <c r="AM3">
-        <v>-95.39765209812421</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN3">
-        <v>155.7752070444128</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO3">
-        <v>19.90061784524741</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507043144</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ3">
-        <v>152.9264757634079</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9068,22 +9068,22 @@
         <v>0.8514129462775721</v>
       </c>
       <c r="AL4">
-        <v>18.6039434716845</v>
+        <v>-5.292660328418039</v>
       </c>
       <c r="AM4">
-        <v>-95.39765209812421</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN4">
-        <v>155.7752070444128</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO4">
-        <v>19.90061784524741</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507043144</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ4">
-        <v>152.9264757634079</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
   </sheetData>
@@ -9343,22 +9343,22 @@
         <v>0.8442536647143238</v>
       </c>
       <c r="AL2">
-        <v>74.33438202440513</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999596</v>
+        <v>-105.6656179757978</v>
       </c>
       <c r="AN2">
-        <v>105.6598069810126</v>
+        <v>105.6598069806291</v>
       </c>
       <c r="AO2">
-        <v>41.84201685276578</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999628</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ2">
-        <v>117.9292480534404</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9474,22 +9474,22 @@
         <v>0.8442536647143238</v>
       </c>
       <c r="AL3">
-        <v>34.69933806084441</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999619</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN3">
-        <v>124.5503549504857</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO3">
-        <v>41.84201685276578</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999628</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ3">
-        <v>117.9292480534404</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9605,22 +9605,22 @@
         <v>0.8442536647143238</v>
       </c>
       <c r="AL4">
-        <v>34.69933806084442</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999619</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN4">
-        <v>124.5503549504857</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO4">
-        <v>41.84201685276578</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999628</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ4">
-        <v>117.9292480534404</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
   </sheetData>
@@ -9880,22 +9880,22 @@
         <v>0.8442536647143238</v>
       </c>
       <c r="AL2">
-        <v>74.33438202440513</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999596</v>
+        <v>-105.6656179757978</v>
       </c>
       <c r="AN2">
-        <v>105.6598069810126</v>
+        <v>105.6598069806291</v>
       </c>
       <c r="AO2">
-        <v>41.84201685276578</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999628</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ2">
-        <v>117.9292480534404</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10011,22 +10011,22 @@
         <v>0.8442536647143238</v>
       </c>
       <c r="AL3">
-        <v>34.69933806084441</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999619</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN3">
-        <v>124.5503549504857</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO3">
-        <v>41.84201685276578</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999628</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ3">
-        <v>117.9292480534404</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10142,22 +10142,22 @@
         <v>0.8442536647143238</v>
       </c>
       <c r="AL4">
-        <v>34.69933806084442</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999619</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN4">
-        <v>124.5503549504857</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO4">
-        <v>41.84201685276578</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999628</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ4">
-        <v>117.9292480534404</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
   </sheetData>
@@ -10417,22 +10417,22 @@
         <v>1.016159979689186</v>
       </c>
       <c r="AL2">
-        <v>29.26272628975795</v>
+        <v>-8.351765333507215</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.5339422527549</v>
       </c>
       <c r="AN2">
-        <v>141.4079909551121</v>
+        <v>116.8442630436326</v>
       </c>
       <c r="AO2">
-        <v>30.27778034773899</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999636</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ2">
-        <v>141.0749476076403</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10548,22 +10548,22 @@
         <v>1.016159979689186</v>
       </c>
       <c r="AL3">
-        <v>30.94780160751773</v>
+        <v>-1.174854820720038</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999631</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN3">
-        <v>140.7290130523957</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO3">
-        <v>30.27778034773899</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999636</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ3">
-        <v>141.0749476076403</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10679,22 +10679,22 @@
         <v>1.016159979689186</v>
       </c>
       <c r="AL4">
-        <v>30.94780160751773</v>
+        <v>-1.174854820720031</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999629</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN4">
-        <v>140.7290130523957</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO4">
-        <v>30.27778034773899</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ4">
-        <v>141.0749476076403</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
   </sheetData>
@@ -10954,22 +10954,22 @@
         <v>1.016159979689186</v>
       </c>
       <c r="AL2">
-        <v>29.26272628975795</v>
+        <v>-8.351765333507215</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.5339422527549</v>
       </c>
       <c r="AN2">
-        <v>141.4079909551121</v>
+        <v>116.8442630436326</v>
       </c>
       <c r="AO2">
-        <v>30.27778034773899</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999636</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ2">
-        <v>141.0749476076403</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11085,22 +11085,22 @@
         <v>1.016159979689186</v>
       </c>
       <c r="AL3">
-        <v>30.94780160751773</v>
+        <v>-1.174854820720038</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999631</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN3">
-        <v>140.7290130523957</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO3">
-        <v>30.27778034773899</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999636</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ3">
-        <v>141.0749476076403</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11216,22 +11216,22 @@
         <v>1.016159979689186</v>
       </c>
       <c r="AL4">
-        <v>30.94780160751773</v>
+        <v>-1.174854820720031</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999629</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN4">
-        <v>140.7290130523957</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO4">
-        <v>30.27778034773899</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ4">
-        <v>141.0749476076403</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
   </sheetData>
@@ -11491,22 +11491,22 @@
         <v>0.8522031570042652</v>
       </c>
       <c r="AL2">
-        <v>73.96052963529452</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999599</v>
+        <v>-106.0394703642315</v>
       </c>
       <c r="AN2">
-        <v>106.0233806110438</v>
+        <v>106.023380610698</v>
       </c>
       <c r="AO2">
-        <v>31.62940090634079</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ2">
-        <v>124.0256852900353</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11622,22 +11622,22 @@
         <v>0.8522031570042652</v>
       </c>
       <c r="AL3">
-        <v>30.59148274614518</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999611</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN3">
-        <v>130.8537654848676</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO3">
-        <v>31.62940090634079</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ3">
-        <v>124.0256852900353</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11753,22 +11753,22 @@
         <v>0.8522031570042652</v>
       </c>
       <c r="AL4">
-        <v>30.59148274614519</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999611</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN4">
-        <v>130.8537654848676</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO4">
-        <v>31.62940090634079</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ4">
-        <v>124.0256852900353</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
   </sheetData>
@@ -11884,10 +11884,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P2">
-        <v>45.00000000014263</v>
+        <v>-10.05101633965329</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11937,10 +11937,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P3">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827228</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11990,10 +11990,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P4">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827231</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
   </sheetData>
@@ -12253,22 +12253,22 @@
         <v>0.8522031570042652</v>
       </c>
       <c r="AL2">
-        <v>73.96052963529452</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999599</v>
+        <v>-106.0394703642315</v>
       </c>
       <c r="AN2">
-        <v>106.0233806110438</v>
+        <v>106.023380610698</v>
       </c>
       <c r="AO2">
-        <v>31.62940090634079</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999631</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ2">
-        <v>124.0256852900353</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12384,22 +12384,22 @@
         <v>0.8522031570042652</v>
       </c>
       <c r="AL3">
-        <v>30.59148274614518</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999611</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN3">
-        <v>130.8537654848676</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO3">
-        <v>31.62940090634079</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999631</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ3">
-        <v>124.0256852900353</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12515,22 +12515,22 @@
         <v>0.8522031570042652</v>
       </c>
       <c r="AL4">
-        <v>30.59148274614519</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999611</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN4">
-        <v>130.8537654848676</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO4">
-        <v>31.62940090634079</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999631</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ4">
-        <v>124.0256852900353</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
   </sheetData>
@@ -12790,22 +12790,22 @@
         <v>0.9180075919745204</v>
       </c>
       <c r="AL2">
-        <v>29.30782544019303</v>
+        <v>-8.692698158235416</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.4884237755319</v>
       </c>
       <c r="AN2">
-        <v>141.0916992016996</v>
+        <v>116.7866489320772</v>
       </c>
       <c r="AO2">
-        <v>30.80741995392377</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999633</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ2">
-        <v>141.4811203018104</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12921,22 +12921,22 @@
         <v>0.9180075919745204</v>
       </c>
       <c r="AL3">
-        <v>31.68194032262535</v>
+        <v>7.181611621190969</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999622</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN3">
-        <v>141.4979263676711</v>
+        <v>125.12124607394</v>
       </c>
       <c r="AO3">
-        <v>30.80741995392377</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999633</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ3">
-        <v>141.4811203018104</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13052,22 +13052,22 @@
         <v>0.9180075919745204</v>
       </c>
       <c r="AL4">
-        <v>31.68194032262535</v>
+        <v>7.181611621190973</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999622</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN4">
-        <v>141.4979263676711</v>
+        <v>125.1212460739401</v>
       </c>
       <c r="AO4">
-        <v>30.80741995392377</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999633</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ4">
-        <v>141.4811203018104</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
   </sheetData>
@@ -13327,22 +13327,22 @@
         <v>0.9180075919745204</v>
       </c>
       <c r="AL2">
-        <v>29.30782544019303</v>
+        <v>-8.692698158235416</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999643</v>
+        <v>-118.4884237755319</v>
       </c>
       <c r="AN2">
-        <v>141.0916992016996</v>
+        <v>116.7866489320772</v>
       </c>
       <c r="AO2">
-        <v>30.80741995392377</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999633</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ2">
-        <v>141.4811203018104</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13458,22 +13458,22 @@
         <v>0.9180075919745204</v>
       </c>
       <c r="AL3">
-        <v>31.68194032262535</v>
+        <v>7.181611621190969</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999622</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN3">
-        <v>141.4979263676711</v>
+        <v>125.12124607394</v>
       </c>
       <c r="AO3">
-        <v>30.80741995392377</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999633</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ3">
-        <v>141.4811203018104</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13589,22 +13589,22 @@
         <v>0.9180075919745204</v>
       </c>
       <c r="AL4">
-        <v>31.68194032262535</v>
+        <v>7.181611621190973</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999622</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN4">
-        <v>141.4979263676711</v>
+        <v>125.1212460739401</v>
       </c>
       <c r="AO4">
-        <v>30.80741995392377</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999633</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ4">
-        <v>141.4811203018104</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
   </sheetData>
@@ -13720,10 +13720,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P2">
-        <v>45.00000000014263</v>
+        <v>-10.05101633965329</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13773,10 +13773,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P3">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827228</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13826,10 +13826,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P4">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827231</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
   </sheetData>
@@ -13945,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749287</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13998,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14051,10 +14051,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14170,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749287</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14276,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14395,10 +14395,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P2">
-        <v>44.99999999986318</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14448,10 +14448,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P3">
-        <v>44.99999999987254</v>
+        <v>-5.397652098192608</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14501,10 +14501,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P4">
-        <v>44.99999999987253</v>
+        <v>-5.397652098192621</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
   </sheetData>
@@ -14620,10 +14620,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P2">
-        <v>44.99999999986318</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14673,10 +14673,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P3">
-        <v>44.99999999987254</v>
+        <v>-5.397652098192608</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14726,10 +14726,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P4">
-        <v>44.99999999987253</v>
+        <v>-5.397652098192621</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
   </sheetData>
@@ -14989,22 +14989,22 @@
         <v>0.9526279648047552</v>
       </c>
       <c r="AL2">
-        <v>-4.010262066734339E-12</v>
+        <v>7.100341988099845E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999793</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999858</v>
       </c>
       <c r="AO2">
-        <v>-1.246628885272961E-11</v>
+        <v>5.400307135557078E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15120,22 +15120,22 @@
         <v>0.9526279648047552</v>
       </c>
       <c r="AL3">
-        <v>-1.465558576747149E-11</v>
+        <v>4.077258211264359E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999479</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999518</v>
       </c>
       <c r="AO3">
-        <v>-1.246628885272961E-11</v>
+        <v>5.400307135557078E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15251,22 +15251,22 @@
         <v>0.9526279648047552</v>
       </c>
       <c r="AL4">
-        <v>-1.464887965933316E-11</v>
+        <v>4.235678099021902E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999479</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO4">
-        <v>-1.246628885272961E-11</v>
+        <v>5.400307135557078E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999592</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_branch.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -4714,130 +4714,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003564755549244753</v>
+        <v>0.002647974408741555</v>
       </c>
       <c r="C2">
-        <v>0.003564756460645494</v>
+        <v>0.002647974402938488</v>
       </c>
       <c r="D2">
-        <v>0.003564754645664118</v>
+        <v>0.002647974402939516</v>
       </c>
       <c r="E2">
-        <v>0.004333624317807362</v>
+        <v>3.985884055591769</v>
       </c>
       <c r="F2">
-        <v>4.889809056797867</v>
+        <v>0.005045461971653196</v>
       </c>
       <c r="G2">
-        <v>3.077923521317161</v>
+        <v>0.005045461971651689</v>
       </c>
       <c r="H2">
-        <v>0.04116225151903341</v>
+        <v>0.03057617475388354</v>
       </c>
       <c r="I2">
-        <v>0.04116226204298268</v>
+        <v>0.03057617468687549</v>
       </c>
       <c r="J2">
-        <v>0.04116224108538295</v>
+        <v>0.03057617468688737</v>
       </c>
       <c r="K2">
-        <v>0.05004038332905578</v>
+        <v>46.0250246490909</v>
       </c>
       <c r="L2">
-        <v>56.46265150456237</v>
+        <v>0.05825997655039986</v>
       </c>
       <c r="M2">
-        <v>35.54079947155088</v>
+        <v>0.05825997655038246</v>
       </c>
       <c r="N2">
-        <v>0.0001057066698378471</v>
+        <v>-5.80741909248416E-13</v>
       </c>
       <c r="O2">
-        <v>-6.201144309566284E-13</v>
+        <v>0.02915661749147536</v>
       </c>
       <c r="P2">
-        <v>7.380091425415788E-14</v>
+        <v>-0.02909829038249332</v>
       </c>
       <c r="Q2">
-        <v>-2.603402436400735E-05</v>
+        <v>3.467736902753062E-10</v>
       </c>
       <c r="R2">
-        <v>1.938650319085478E-10</v>
+        <v>-0.04973865767079309</v>
       </c>
       <c r="S2">
-        <v>1.54472714506275E-10</v>
+        <v>0.04970336856414861</v>
       </c>
       <c r="T2">
-        <v>-0.0296019886367459</v>
+        <v>4.510153299517252E-14</v>
       </c>
       <c r="U2">
-        <v>-2.755513062476181E-13</v>
+        <v>-0.00804265425937601</v>
       </c>
       <c r="V2">
-        <v>6.74125610649174E-13</v>
+        <v>-0.008291210119542739</v>
       </c>
       <c r="W2">
-        <v>0.06570554578103245</v>
+        <v>-2.531457830071392E-10</v>
       </c>
       <c r="X2">
-        <v>-2.222997204870831E-10</v>
+        <v>0.01987263725683129</v>
       </c>
       <c r="Y2">
-        <v>-1.011595086296906E-10</v>
+        <v>0.06919119585415683</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-58.40720162650801</v>
       </c>
       <c r="AA2">
-        <v>175.5146322687812</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>39.42740106770473</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-101.0140143960345</v>
+        <v>121.53131083854</v>
       </c>
       <c r="AD2">
-        <v>-4.535817206283355</v>
+        <v>63.62075560806114</v>
       </c>
       <c r="AE2">
-        <v>-140.5212224143719</v>
+        <v>63.62075560808515</v>
       </c>
       <c r="AF2">
-        <v>0.4152062737902777</v>
+        <v>0.5711070883988375</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.100000023844383</v>
       </c>
       <c r="AH2">
-        <v>0.4152062738035633</v>
+        <v>0.5713137067019788</v>
       </c>
       <c r="AI2">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="AK2">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="AL2">
-        <v>-0.02683261092834746</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-105.6656179757978</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>105.6598069806291</v>
       </c>
       <c r="AO2">
-        <v>-10.99131251259726</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4845,130 +4845,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.619406804001393</v>
       </c>
       <c r="C3">
-        <v>3.667011207942133</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.529552560904281</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002166812192188307</v>
+        <v>0.002522731257277622</v>
       </c>
       <c r="F3">
-        <v>0.002166812589050659</v>
+        <v>0.00252273102457668</v>
       </c>
       <c r="G3">
-        <v>0.002166811995194994</v>
+        <v>0.002522731024579104</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30.24630446814683</v>
       </c>
       <c r="I3">
-        <v>42.34299816053531</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>29.20875703934788</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02502019204886564</v>
+        <v>0.02912999140964637</v>
       </c>
       <c r="L3">
-        <v>0.02502019663143736</v>
+        <v>0.02912998872264733</v>
       </c>
       <c r="M3">
-        <v>0.02502018977418279</v>
+        <v>0.02912998872267533</v>
       </c>
       <c r="N3">
-        <v>-1.684989091490127E-09</v>
+        <v>1.106214772346862E-10</v>
       </c>
       <c r="O3">
-        <v>9.895389205585726E-11</v>
+        <v>-3.409190523366211E-10</v>
       </c>
       <c r="P3">
-        <v>9.532970540725278E-11</v>
+        <v>-2.698769643326175E-09</v>
       </c>
       <c r="Q3">
-        <v>1.301645073997308E-05</v>
+        <v>-2.523380814049786E-13</v>
       </c>
       <c r="R3">
-        <v>-8.818582987197466E-14</v>
+        <v>0.02486932904752574</v>
       </c>
       <c r="S3">
-        <v>-3.859767573109912E-14</v>
+        <v>-0.02485168525524505</v>
       </c>
       <c r="T3">
-        <v>-7.545964140056814E-10</v>
+        <v>-1.17106179546605E-10</v>
       </c>
       <c r="U3">
-        <v>-1.083650148838716E-10</v>
+        <v>-1.862540238420296E-09</v>
       </c>
       <c r="V3">
-        <v>-3.093260678451923E-11</v>
+        <v>5.012077102821398E-10</v>
       </c>
       <c r="W3">
-        <v>-0.03285277339539359</v>
+        <v>-1.00831023756044E-13</v>
       </c>
       <c r="X3">
-        <v>-9.647264291771344E-14</v>
+        <v>-0.009936319206211222</v>
       </c>
       <c r="Y3">
-        <v>1.241271908774927E-13</v>
+        <v>-0.03459559803368606</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-58.40720162650801</v>
       </c>
       <c r="AA3">
-        <v>175.5146322687812</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>39.42740106770473</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>78.98598658347112</v>
+        <v>-116.379248560521</v>
       </c>
       <c r="AD3">
-        <v>78.98598553759287</v>
+        <v>-116.3792434123937</v>
       </c>
       <c r="AE3">
-        <v>78.98598248124385</v>
+        <v>-116.3792434124418</v>
       </c>
       <c r="AF3">
-        <v>0.8170022497395296</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="AH3">
-        <v>0.8170022497429723</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="AI3">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="AK3">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="AL3">
-        <v>-7.597588372061134</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO3">
-        <v>-10.99131251259726</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4976,130 +4976,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.619406804001392</v>
       </c>
       <c r="C4">
-        <v>3.667011207942134</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.529552560904275</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002166812192186539</v>
+        <v>0.002522731257276887</v>
       </c>
       <c r="F4">
-        <v>0.002166812589050345</v>
+        <v>0.002522731024577965</v>
       </c>
       <c r="G4">
-        <v>0.002166811995196918</v>
+        <v>0.00252273102457764</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>30.24630446814682</v>
       </c>
       <c r="I4">
-        <v>42.34299816053532</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>29.20875703934781</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02502019204884524</v>
+        <v>0.02912999140963788</v>
       </c>
       <c r="L4">
-        <v>0.02502019663143374</v>
+        <v>0.02912998872266217</v>
       </c>
       <c r="M4">
-        <v>0.02502018977420502</v>
+        <v>0.02912998872265842</v>
       </c>
       <c r="N4">
-        <v>-1.685039147083421E-09</v>
+        <v>1.106309448111371E-10</v>
       </c>
       <c r="O4">
-        <v>9.896031060128931E-11</v>
+        <v>-3.409243139626289E-10</v>
       </c>
       <c r="P4">
-        <v>9.531179440778896E-11</v>
+        <v>-2.698763933669827E-09</v>
       </c>
       <c r="Q4">
-        <v>1.301645073250567E-05</v>
+        <v>-2.523380814048905E-13</v>
       </c>
       <c r="R4">
-        <v>-8.81858298720336E-14</v>
+        <v>0.0248693290475377</v>
       </c>
       <c r="S4">
-        <v>-3.859767573120772E-14</v>
+        <v>-0.02485168525524578</v>
       </c>
       <c r="T4">
-        <v>-7.546167876197276E-10</v>
+        <v>-1.171056844698335E-10</v>
       </c>
       <c r="U4">
-        <v>-1.083940456393548E-10</v>
+        <v>-1.86252364826696E-09</v>
       </c>
       <c r="V4">
-        <v>-3.095165225267162E-11</v>
+        <v>5.012386686506209E-10</v>
       </c>
       <c r="W4">
-        <v>-0.0328527733953668</v>
+        <v>-1.008310237560511E-13</v>
       </c>
       <c r="X4">
-        <v>-9.647264291763392E-14</v>
+        <v>-0.00993631920621805</v>
       </c>
       <c r="Y4">
-        <v>1.241271908775798E-13</v>
+        <v>-0.0345955980336551</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-58.40720162650801</v>
       </c>
       <c r="AA4">
-        <v>175.5146322687812</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>39.42740106770473</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>78.98598658348412</v>
+        <v>-116.3792485605293</v>
       </c>
       <c r="AD4">
-        <v>78.98598553763546</v>
+        <v>-116.3792434123896</v>
       </c>
       <c r="AE4">
-        <v>78.98598248120956</v>
+        <v>-116.3792434124167</v>
       </c>
       <c r="AF4">
-        <v>0.8170022497395295</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="AH4">
-        <v>0.8170022497429722</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="AI4">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="AK4">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="AL4">
-        <v>-7.59758837206113</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO4">
-        <v>-10.99131251259726</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
   </sheetData>
@@ -5251,130 +5251,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003564755549244753</v>
+        <v>0.002647974408741555</v>
       </c>
       <c r="C2">
-        <v>0.003564756460645494</v>
+        <v>0.002647974402938488</v>
       </c>
       <c r="D2">
-        <v>0.003564754645664118</v>
+        <v>0.002647974402939516</v>
       </c>
       <c r="E2">
-        <v>0.004333624317807362</v>
+        <v>3.985884055591769</v>
       </c>
       <c r="F2">
-        <v>4.889809056797867</v>
+        <v>0.005045461971653196</v>
       </c>
       <c r="G2">
-        <v>3.077923521317161</v>
+        <v>0.005045461971651689</v>
       </c>
       <c r="H2">
-        <v>0.04116225151903341</v>
+        <v>0.03057617475388354</v>
       </c>
       <c r="I2">
-        <v>0.04116226204298268</v>
+        <v>0.03057617468687549</v>
       </c>
       <c r="J2">
-        <v>0.04116224108538295</v>
+        <v>0.03057617468688737</v>
       </c>
       <c r="K2">
-        <v>0.05004038332905578</v>
+        <v>46.0250246490909</v>
       </c>
       <c r="L2">
-        <v>56.46265150456237</v>
+        <v>0.05825997655039986</v>
       </c>
       <c r="M2">
-        <v>35.54079947155088</v>
+        <v>0.05825997655038246</v>
       </c>
       <c r="N2">
-        <v>0.0001057066698378471</v>
+        <v>-5.80741909248416E-13</v>
       </c>
       <c r="O2">
-        <v>-6.201144309566284E-13</v>
+        <v>0.02915661749147536</v>
       </c>
       <c r="P2">
-        <v>7.380091425415788E-14</v>
+        <v>-0.02909829038249332</v>
       </c>
       <c r="Q2">
-        <v>-2.603402436400735E-05</v>
+        <v>3.467736902753062E-10</v>
       </c>
       <c r="R2">
-        <v>1.938650319085478E-10</v>
+        <v>-0.04973865767079309</v>
       </c>
       <c r="S2">
-        <v>1.54472714506275E-10</v>
+        <v>0.04970336856414861</v>
       </c>
       <c r="T2">
-        <v>-0.0296019886367459</v>
+        <v>4.510153299517252E-14</v>
       </c>
       <c r="U2">
-        <v>-2.755513062476181E-13</v>
+        <v>-0.00804265425937601</v>
       </c>
       <c r="V2">
-        <v>6.74125610649174E-13</v>
+        <v>-0.008291210119542739</v>
       </c>
       <c r="W2">
-        <v>0.06570554578103245</v>
+        <v>-2.531457830071392E-10</v>
       </c>
       <c r="X2">
-        <v>-2.222997204870831E-10</v>
+        <v>0.01987263725683129</v>
       </c>
       <c r="Y2">
-        <v>-1.011595086296906E-10</v>
+        <v>0.06919119585415683</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-58.40720162650801</v>
       </c>
       <c r="AA2">
-        <v>175.5146322687812</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>39.42740106770473</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-101.0140143960345</v>
+        <v>121.53131083854</v>
       </c>
       <c r="AD2">
-        <v>-4.535817206283355</v>
+        <v>63.62075560806114</v>
       </c>
       <c r="AE2">
-        <v>-140.5212224143719</v>
+        <v>63.62075560808515</v>
       </c>
       <c r="AF2">
-        <v>0.4152062737902777</v>
+        <v>0.5711070883988375</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.100000023844383</v>
       </c>
       <c r="AH2">
-        <v>0.4152062738035633</v>
+        <v>0.5713137067019788</v>
       </c>
       <c r="AI2">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="AK2">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="AL2">
-        <v>-0.02683261092834746</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-105.6656179757978</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>105.6598069806291</v>
       </c>
       <c r="AO2">
-        <v>-10.99131251259726</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5382,130 +5382,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.619406804001393</v>
       </c>
       <c r="C3">
-        <v>3.667011207942133</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.529552560904281</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002166812192188307</v>
+        <v>0.002522731257277622</v>
       </c>
       <c r="F3">
-        <v>0.002166812589050659</v>
+        <v>0.00252273102457668</v>
       </c>
       <c r="G3">
-        <v>0.002166811995194994</v>
+        <v>0.002522731024579104</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30.24630446814683</v>
       </c>
       <c r="I3">
-        <v>42.34299816053531</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>29.20875703934788</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02502019204886564</v>
+        <v>0.02912999140964637</v>
       </c>
       <c r="L3">
-        <v>0.02502019663143736</v>
+        <v>0.02912998872264733</v>
       </c>
       <c r="M3">
-        <v>0.02502018977418279</v>
+        <v>0.02912998872267533</v>
       </c>
       <c r="N3">
-        <v>-1.684989091490127E-09</v>
+        <v>1.106214772346862E-10</v>
       </c>
       <c r="O3">
-        <v>9.895389205585726E-11</v>
+        <v>-3.409190523366211E-10</v>
       </c>
       <c r="P3">
-        <v>9.532970540725278E-11</v>
+        <v>-2.698769643326175E-09</v>
       </c>
       <c r="Q3">
-        <v>1.301645073997308E-05</v>
+        <v>-2.523380814049786E-13</v>
       </c>
       <c r="R3">
-        <v>-8.818582987197466E-14</v>
+        <v>0.02486932904752574</v>
       </c>
       <c r="S3">
-        <v>-3.859767573109912E-14</v>
+        <v>-0.02485168525524505</v>
       </c>
       <c r="T3">
-        <v>-7.545964140056814E-10</v>
+        <v>-1.17106179546605E-10</v>
       </c>
       <c r="U3">
-        <v>-1.083650148838716E-10</v>
+        <v>-1.862540238420296E-09</v>
       </c>
       <c r="V3">
-        <v>-3.093260678451923E-11</v>
+        <v>5.012077102821398E-10</v>
       </c>
       <c r="W3">
-        <v>-0.03285277339539359</v>
+        <v>-1.00831023756044E-13</v>
       </c>
       <c r="X3">
-        <v>-9.647264291771344E-14</v>
+        <v>-0.009936319206211222</v>
       </c>
       <c r="Y3">
-        <v>1.241271908774927E-13</v>
+        <v>-0.03459559803368606</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-58.40720162650801</v>
       </c>
       <c r="AA3">
-        <v>175.5146322687812</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>39.42740106770473</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>78.98598658347112</v>
+        <v>-116.379248560521</v>
       </c>
       <c r="AD3">
-        <v>78.98598553759287</v>
+        <v>-116.3792434123937</v>
       </c>
       <c r="AE3">
-        <v>78.98598248124385</v>
+        <v>-116.3792434124418</v>
       </c>
       <c r="AF3">
-        <v>0.8170022497395296</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="AH3">
-        <v>0.8170022497429723</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="AI3">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="AK3">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="AL3">
-        <v>-7.597588372061134</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO3">
-        <v>-10.99131251259726</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5513,130 +5513,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.619406804001392</v>
       </c>
       <c r="C4">
-        <v>3.667011207942134</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.529552560904275</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002166812192186539</v>
+        <v>0.002522731257276887</v>
       </c>
       <c r="F4">
-        <v>0.002166812589050345</v>
+        <v>0.002522731024577965</v>
       </c>
       <c r="G4">
-        <v>0.002166811995196918</v>
+        <v>0.00252273102457764</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>30.24630446814682</v>
       </c>
       <c r="I4">
-        <v>42.34299816053532</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>29.20875703934781</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02502019204884524</v>
+        <v>0.02912999140963788</v>
       </c>
       <c r="L4">
-        <v>0.02502019663143374</v>
+        <v>0.02912998872266217</v>
       </c>
       <c r="M4">
-        <v>0.02502018977420502</v>
+        <v>0.02912998872265842</v>
       </c>
       <c r="N4">
-        <v>-1.685039147083421E-09</v>
+        <v>1.106309448111371E-10</v>
       </c>
       <c r="O4">
-        <v>9.896031060128931E-11</v>
+        <v>-3.409243139626289E-10</v>
       </c>
       <c r="P4">
-        <v>9.531179440778896E-11</v>
+        <v>-2.698763933669827E-09</v>
       </c>
       <c r="Q4">
-        <v>1.301645073250567E-05</v>
+        <v>-2.523380814048905E-13</v>
       </c>
       <c r="R4">
-        <v>-8.81858298720336E-14</v>
+        <v>0.0248693290475377</v>
       </c>
       <c r="S4">
-        <v>-3.859767573120772E-14</v>
+        <v>-0.02485168525524578</v>
       </c>
       <c r="T4">
-        <v>-7.546167876197276E-10</v>
+        <v>-1.171056844698335E-10</v>
       </c>
       <c r="U4">
-        <v>-1.083940456393548E-10</v>
+        <v>-1.86252364826696E-09</v>
       </c>
       <c r="V4">
-        <v>-3.095165225267162E-11</v>
+        <v>5.012386686506209E-10</v>
       </c>
       <c r="W4">
-        <v>-0.0328527733953668</v>
+        <v>-1.008310237560511E-13</v>
       </c>
       <c r="X4">
-        <v>-9.647264291763392E-14</v>
+        <v>-0.00993631920621805</v>
       </c>
       <c r="Y4">
-        <v>1.241271908775798E-13</v>
+        <v>-0.0345955980336551</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-58.40720162650801</v>
       </c>
       <c r="AA4">
-        <v>175.5146322687812</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>39.42740106770473</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>78.98598658348412</v>
+        <v>-116.3792485605293</v>
       </c>
       <c r="AD4">
-        <v>78.98598553763546</v>
+        <v>-116.3792434123896</v>
       </c>
       <c r="AE4">
-        <v>78.98598248120956</v>
+        <v>-116.3792434124167</v>
       </c>
       <c r="AF4">
-        <v>0.8170022497395295</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="AH4">
-        <v>0.8170022497429722</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="AI4">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="AK4">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="AL4">
-        <v>-7.59758837206113</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-145.3006619393671</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>124.5503549503629</v>
       </c>
       <c r="AO4">
-        <v>-10.99131251259726</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-138.1579831476276</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>117.9292480532439</v>
       </c>
     </row>
   </sheetData>
@@ -5788,130 +5788,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005984907094290179</v>
+        <v>0.0005712655780794837</v>
       </c>
       <c r="C2">
-        <v>0.0005984909448972082</v>
+        <v>0.0005712655768272692</v>
       </c>
       <c r="D2">
-        <v>0.000598490475273703</v>
+        <v>0.0005712655768273472</v>
       </c>
       <c r="E2">
-        <v>0.001492178248594434</v>
+        <v>1.246125549246026</v>
       </c>
       <c r="F2">
-        <v>1.366936065296369</v>
+        <v>0.001577386342135507</v>
       </c>
       <c r="G2">
-        <v>1.183273455537173</v>
+        <v>0.001577386342135575</v>
       </c>
       <c r="H2">
-        <v>0.006910775443926672</v>
+        <v>0.006596406705659142</v>
       </c>
       <c r="I2">
-        <v>0.006910778162879134</v>
+        <v>0.006596406691199814</v>
       </c>
       <c r="J2">
-        <v>0.00691077274013399</v>
+        <v>0.006596406691200716</v>
       </c>
       <c r="K2">
-        <v>0.01723019027009802</v>
+        <v>14.38901842602527</v>
       </c>
       <c r="L2">
-        <v>15.78401810527733</v>
+        <v>0.01821408858495948</v>
       </c>
       <c r="M2">
-        <v>13.66326496158651</v>
+        <v>0.01821408858496026</v>
       </c>
       <c r="N2">
-        <v>-0.00442599483096338</v>
+        <v>0.004035192138677903</v>
       </c>
       <c r="O2">
-        <v>-0.001435907761970144</v>
+        <v>0.003210228117279302</v>
       </c>
       <c r="P2">
-        <v>0.005864877941901128</v>
+        <v>-0.007242707788580234</v>
       </c>
       <c r="Q2">
-        <v>-0.00279323535610212</v>
+        <v>-7.750596745669152</v>
       </c>
       <c r="R2">
-        <v>-9.337081679777295</v>
+        <v>-0.01814228480937915</v>
       </c>
       <c r="S2">
-        <v>-6.99403501370188</v>
+        <v>0.01502093622082109</v>
       </c>
       <c r="T2">
-        <v>-0.005740201063496955</v>
+        <v>0.00446962500857637</v>
       </c>
       <c r="U2">
-        <v>0.006185520399132775</v>
+        <v>-0.006103716549162426</v>
       </c>
       <c r="V2">
-        <v>-0.001279719136562952</v>
+        <v>0.0008738767093595997</v>
       </c>
       <c r="W2">
-        <v>0.019902485453084</v>
+        <v>-7.767249883374745</v>
       </c>
       <c r="X2">
-        <v>-9.355908514044778</v>
+        <v>0.006009797420381993</v>
       </c>
       <c r="Y2">
-        <v>-6.990110759492147</v>
+        <v>0.01623057510759732</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-49.15705482648663</v>
       </c>
       <c r="AA2">
-        <v>-169.6110161338007</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>64.84444377535816</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-102.2979589376356</v>
+        <v>130.7814576385614</v>
       </c>
       <c r="AD2">
-        <v>10.33127786164016</v>
+        <v>72.87090240808475</v>
       </c>
       <c r="AE2">
-        <v>-115.1394777880647</v>
+        <v>72.87090240811474</v>
       </c>
       <c r="AF2">
-        <v>1.027154900637619</v>
+        <v>0.9282437459573998</v>
       </c>
       <c r="AG2">
-        <v>0.8723446855816874</v>
+        <v>1.100000023844591</v>
       </c>
       <c r="AH2">
-        <v>0.9370212414505737</v>
+        <v>1.036054827732469</v>
       </c>
       <c r="AI2">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="AJ2">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="AK2">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="AL2">
-        <v>-2.047021704634401</v>
+        <v>-8.351765333507215</v>
       </c>
       <c r="AM2">
-        <v>-131.3437653417182</v>
+        <v>-118.5339422527549</v>
       </c>
       <c r="AN2">
-        <v>113.278029361874</v>
+        <v>116.8442630436326</v>
       </c>
       <c r="AO2">
-        <v>-4.308903017906394</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP2">
-        <v>-124.6110161336328</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ2">
-        <v>109.8444437755527</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5919,130 +5919,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.065893177055904</v>
       </c>
       <c r="C3">
-        <v>1.249318774902169</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.040654529964374</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007460891357577192</v>
+        <v>0.0007886932559330323</v>
       </c>
       <c r="F3">
-        <v>0.0007460892454299551</v>
+        <v>0.0007886931831825995</v>
       </c>
       <c r="G3">
-        <v>0.0007460890949058396</v>
+        <v>0.0007886931831825469</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.30787425401223</v>
       </c>
       <c r="I3">
-        <v>14.42589061986842</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.01644346016669</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00861509526738349</v>
+        <v>0.009107045272419572</v>
       </c>
       <c r="L3">
-        <v>0.008615096533769387</v>
+        <v>0.009107044432369933</v>
       </c>
       <c r="M3">
-        <v>0.008615094795666614</v>
+        <v>0.009107044432369326</v>
       </c>
       <c r="N3">
-        <v>-6.586735270825859E-10</v>
+        <v>-5.680641324400423</v>
       </c>
       <c r="O3">
-        <v>-7.803987006572378</v>
+        <v>4.063478036423839E-11</v>
       </c>
       <c r="P3">
-        <v>-5.414809253074123</v>
+        <v>-8.896295024916333E-10</v>
       </c>
       <c r="Q3">
-        <v>0.001396617529381353</v>
+        <v>-0.001558950368077746</v>
       </c>
       <c r="R3">
-        <v>-0.006674306581498407</v>
+        <v>0.009071142492657122</v>
       </c>
       <c r="S3">
-        <v>0.005279230701087215</v>
+        <v>-0.007510468364506764</v>
       </c>
       <c r="T3">
-        <v>-4.166842292129405E-10</v>
+        <v>-5.680641325560946</v>
       </c>
       <c r="U3">
-        <v>-7.803987007578964</v>
+        <v>-7.636019616226532E-10</v>
       </c>
       <c r="V3">
-        <v>-5.414809254707131</v>
+        <v>2.265257881866991E-10</v>
       </c>
       <c r="W3">
-        <v>-0.009951242903276798</v>
+        <v>0.006767617879231799</v>
       </c>
       <c r="X3">
-        <v>0.002739109991126616</v>
+        <v>-0.003004898911426705</v>
       </c>
       <c r="Y3">
-        <v>0.003317102838576357</v>
+        <v>-0.008115287550062042</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-49.15705482648663</v>
       </c>
       <c r="AA3">
-        <v>-169.6110161338007</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>64.84444377535816</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>77.70204204186493</v>
+        <v>-107.1291017604921</v>
       </c>
       <c r="AD3">
-        <v>77.70204359773528</v>
+        <v>-107.1290966123905</v>
       </c>
       <c r="AE3">
-        <v>77.70203533783985</v>
+        <v>-107.1290966124033</v>
       </c>
       <c r="AF3">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278245</v>
       </c>
       <c r="AG3">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="AH3">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="AI3">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="AJ3">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="AK3">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="AL3">
-        <v>-4.775555041063019</v>
+        <v>-1.174854820720038</v>
       </c>
       <c r="AM3">
-        <v>-120.4649322159348</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN3">
-        <v>106.8663009952652</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO3">
-        <v>-4.308903017906394</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP3">
-        <v>-124.6110161336328</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ3">
-        <v>109.8444437755527</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6050,130 +6050,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.065893177055904</v>
       </c>
       <c r="C4">
-        <v>1.24931877490217</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.040654529964372</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007460891357574314</v>
+        <v>0.0007886932559327906</v>
       </c>
       <c r="F4">
-        <v>0.000746089245428804</v>
+        <v>0.0007886931831829916</v>
       </c>
       <c r="G4">
-        <v>0.0007460890949075302</v>
+        <v>0.0007886931831824865</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.30787425401223</v>
       </c>
       <c r="I4">
-        <v>14.42589061986843</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.01644346016667</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.008615095267380166</v>
+        <v>0.009107045272416781</v>
       </c>
       <c r="L4">
-        <v>0.008615096533756096</v>
+        <v>0.009107044432374461</v>
       </c>
       <c r="M4">
-        <v>0.008615094795686137</v>
+        <v>0.009107044432368627</v>
       </c>
       <c r="N4">
-        <v>-6.586691336799594E-10</v>
+        <v>-5.680641324400419</v>
       </c>
       <c r="O4">
-        <v>-7.80398700657238</v>
+        <v>4.063311990934542E-11</v>
       </c>
       <c r="P4">
-        <v>-5.414809253074108</v>
+        <v>-8.896365124786526E-10</v>
       </c>
       <c r="Q4">
-        <v>0.00139661752937605</v>
+        <v>-0.00155895036807054</v>
       </c>
       <c r="R4">
-        <v>-0.006674306581482865</v>
+        <v>0.009071142492661173</v>
       </c>
       <c r="S4">
-        <v>0.005279230701098949</v>
+        <v>-0.007510468364508206</v>
       </c>
       <c r="T4">
-        <v>-4.166845962496937E-10</v>
+        <v>-5.680641325560948</v>
       </c>
       <c r="U4">
-        <v>-7.803987007578966</v>
+        <v>-7.636009754720626E-10</v>
       </c>
       <c r="V4">
-        <v>-5.41480925470713</v>
+        <v>2.265140914543404E-10</v>
       </c>
       <c r="W4">
-        <v>-0.009951242903273629</v>
+        <v>0.006767617879231275</v>
       </c>
       <c r="X4">
-        <v>0.002739109991135168</v>
+        <v>-0.003004898911429588</v>
       </c>
       <c r="Y4">
-        <v>0.003317102838584237</v>
+        <v>-0.008115287550059552</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-49.15705482648663</v>
       </c>
       <c r="AA4">
-        <v>-169.6110161338007</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>64.84444377535816</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>77.70204204189234</v>
+        <v>-107.1291017604352</v>
       </c>
       <c r="AD4">
-        <v>77.70204359784499</v>
+        <v>-107.1290966123817</v>
       </c>
       <c r="AE4">
-        <v>77.70203533783589</v>
+        <v>-107.1290966123891</v>
       </c>
       <c r="AF4">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278244</v>
       </c>
       <c r="AG4">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="AH4">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="AI4">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="AJ4">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="AK4">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="AL4">
-        <v>-4.775555041063012</v>
+        <v>-1.174854820720031</v>
       </c>
       <c r="AM4">
-        <v>-120.4649322159348</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN4">
-        <v>106.8663009952652</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO4">
-        <v>-4.308903017906394</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP4">
-        <v>-124.6110161336328</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ4">
-        <v>109.8444437755527</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
   </sheetData>
@@ -6550,130 +6550,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005984907094290179</v>
+        <v>0.0005712655780794837</v>
       </c>
       <c r="C2">
-        <v>0.0005984909448972082</v>
+        <v>0.0005712655768272692</v>
       </c>
       <c r="D2">
-        <v>0.000598490475273703</v>
+        <v>0.0005712655768273472</v>
       </c>
       <c r="E2">
-        <v>0.001492178248594434</v>
+        <v>1.246125549246026</v>
       </c>
       <c r="F2">
-        <v>1.366936065296369</v>
+        <v>0.001577386342135507</v>
       </c>
       <c r="G2">
-        <v>1.183273455537173</v>
+        <v>0.001577386342135575</v>
       </c>
       <c r="H2">
-        <v>0.006910775443926672</v>
+        <v>0.006596406705659142</v>
       </c>
       <c r="I2">
-        <v>0.006910778162879134</v>
+        <v>0.006596406691199814</v>
       </c>
       <c r="J2">
-        <v>0.00691077274013399</v>
+        <v>0.006596406691200716</v>
       </c>
       <c r="K2">
-        <v>0.01723019027009802</v>
+        <v>14.38901842602527</v>
       </c>
       <c r="L2">
-        <v>15.78401810527733</v>
+        <v>0.01821408858495948</v>
       </c>
       <c r="M2">
-        <v>13.66326496158651</v>
+        <v>0.01821408858496026</v>
       </c>
       <c r="N2">
-        <v>-0.00442599483096338</v>
+        <v>0.004035192138677903</v>
       </c>
       <c r="O2">
-        <v>-0.001435907761970144</v>
+        <v>0.003210228117279302</v>
       </c>
       <c r="P2">
-        <v>0.005864877941901128</v>
+        <v>-0.007242707788580234</v>
       </c>
       <c r="Q2">
-        <v>-0.00279323535610212</v>
+        <v>-7.750596745669152</v>
       </c>
       <c r="R2">
-        <v>-9.337081679777295</v>
+        <v>-0.01814228480937915</v>
       </c>
       <c r="S2">
-        <v>-6.99403501370188</v>
+        <v>0.01502093622082109</v>
       </c>
       <c r="T2">
-        <v>-0.005740201063496955</v>
+        <v>0.00446962500857637</v>
       </c>
       <c r="U2">
-        <v>0.006185520399132775</v>
+        <v>-0.006103716549162426</v>
       </c>
       <c r="V2">
-        <v>-0.001279719136562952</v>
+        <v>0.0008738767093595997</v>
       </c>
       <c r="W2">
-        <v>0.019902485453084</v>
+        <v>-7.767249883374745</v>
       </c>
       <c r="X2">
-        <v>-9.355908514044778</v>
+        <v>0.006009797420381993</v>
       </c>
       <c r="Y2">
-        <v>-6.990110759492147</v>
+        <v>0.01623057510759732</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-49.15705482648663</v>
       </c>
       <c r="AA2">
-        <v>-169.6110161338007</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>64.84444377535816</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-102.2979589376356</v>
+        <v>130.7814576385614</v>
       </c>
       <c r="AD2">
-        <v>10.33127786164016</v>
+        <v>72.87090240808475</v>
       </c>
       <c r="AE2">
-        <v>-115.1394777880647</v>
+        <v>72.87090240811474</v>
       </c>
       <c r="AF2">
-        <v>1.027154900637619</v>
+        <v>0.9282437459573998</v>
       </c>
       <c r="AG2">
-        <v>0.8723446855816874</v>
+        <v>1.100000023844591</v>
       </c>
       <c r="AH2">
-        <v>0.9370212414505737</v>
+        <v>1.036054827732469</v>
       </c>
       <c r="AI2">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="AJ2">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="AK2">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="AL2">
-        <v>-2.047021704634401</v>
+        <v>-8.351765333507215</v>
       </c>
       <c r="AM2">
-        <v>-131.3437653417182</v>
+        <v>-118.5339422527549</v>
       </c>
       <c r="AN2">
-        <v>113.278029361874</v>
+        <v>116.8442630436326</v>
       </c>
       <c r="AO2">
-        <v>-4.308903017906394</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP2">
-        <v>-124.6110161336328</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ2">
-        <v>109.8444437755527</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6681,130 +6681,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.065893177055904</v>
       </c>
       <c r="C3">
-        <v>1.249318774902169</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.040654529964374</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007460891357577192</v>
+        <v>0.0007886932559330323</v>
       </c>
       <c r="F3">
-        <v>0.0007460892454299551</v>
+        <v>0.0007886931831825995</v>
       </c>
       <c r="G3">
-        <v>0.0007460890949058396</v>
+        <v>0.0007886931831825469</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.30787425401223</v>
       </c>
       <c r="I3">
-        <v>14.42589061986842</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.01644346016669</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00861509526738349</v>
+        <v>0.009107045272419572</v>
       </c>
       <c r="L3">
-        <v>0.008615096533769387</v>
+        <v>0.009107044432369933</v>
       </c>
       <c r="M3">
-        <v>0.008615094795666614</v>
+        <v>0.009107044432369326</v>
       </c>
       <c r="N3">
-        <v>-6.586735270825859E-10</v>
+        <v>-5.680641324400423</v>
       </c>
       <c r="O3">
-        <v>-7.803987006572378</v>
+        <v>4.063478036423839E-11</v>
       </c>
       <c r="P3">
-        <v>-5.414809253074123</v>
+        <v>-8.896295024916333E-10</v>
       </c>
       <c r="Q3">
-        <v>0.001396617529381353</v>
+        <v>-0.001558950368077746</v>
       </c>
       <c r="R3">
-        <v>-0.006674306581498407</v>
+        <v>0.009071142492657122</v>
       </c>
       <c r="S3">
-        <v>0.005279230701087215</v>
+        <v>-0.007510468364506764</v>
       </c>
       <c r="T3">
-        <v>-4.166842292129405E-10</v>
+        <v>-5.680641325560946</v>
       </c>
       <c r="U3">
-        <v>-7.803987007578964</v>
+        <v>-7.636019616226532E-10</v>
       </c>
       <c r="V3">
-        <v>-5.414809254707131</v>
+        <v>2.265257881866991E-10</v>
       </c>
       <c r="W3">
-        <v>-0.009951242903276798</v>
+        <v>0.006767617879231799</v>
       </c>
       <c r="X3">
-        <v>0.002739109991126616</v>
+        <v>-0.003004898911426705</v>
       </c>
       <c r="Y3">
-        <v>0.003317102838576357</v>
+        <v>-0.008115287550062042</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-49.15705482648663</v>
       </c>
       <c r="AA3">
-        <v>-169.6110161338007</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>64.84444377535816</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>77.70204204186493</v>
+        <v>-107.1291017604921</v>
       </c>
       <c r="AD3">
-        <v>77.70204359773528</v>
+        <v>-107.1290966123905</v>
       </c>
       <c r="AE3">
-        <v>77.70203533783985</v>
+        <v>-107.1290966124033</v>
       </c>
       <c r="AF3">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278245</v>
       </c>
       <c r="AG3">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="AH3">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="AI3">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="AJ3">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="AK3">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="AL3">
-        <v>-4.775555041063019</v>
+        <v>-1.174854820720038</v>
       </c>
       <c r="AM3">
-        <v>-120.4649322159348</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN3">
-        <v>106.8663009952652</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO3">
-        <v>-4.308903017906394</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP3">
-        <v>-124.6110161336328</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ3">
-        <v>109.8444437755527</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6812,130 +6812,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.065893177055904</v>
       </c>
       <c r="C4">
-        <v>1.24931877490217</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.040654529964372</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007460891357574314</v>
+        <v>0.0007886932559327906</v>
       </c>
       <c r="F4">
-        <v>0.000746089245428804</v>
+        <v>0.0007886931831829916</v>
       </c>
       <c r="G4">
-        <v>0.0007460890949075302</v>
+        <v>0.0007886931831824865</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.30787425401223</v>
       </c>
       <c r="I4">
-        <v>14.42589061986843</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.01644346016667</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.008615095267380166</v>
+        <v>0.009107045272416781</v>
       </c>
       <c r="L4">
-        <v>0.008615096533756096</v>
+        <v>0.009107044432374461</v>
       </c>
       <c r="M4">
-        <v>0.008615094795686137</v>
+        <v>0.009107044432368627</v>
       </c>
       <c r="N4">
-        <v>-6.586691336799594E-10</v>
+        <v>-5.680641324400419</v>
       </c>
       <c r="O4">
-        <v>-7.80398700657238</v>
+        <v>4.063311990934542E-11</v>
       </c>
       <c r="P4">
-        <v>-5.414809253074108</v>
+        <v>-8.896365124786526E-10</v>
       </c>
       <c r="Q4">
-        <v>0.00139661752937605</v>
+        <v>-0.00155895036807054</v>
       </c>
       <c r="R4">
-        <v>-0.006674306581482865</v>
+        <v>0.009071142492661173</v>
       </c>
       <c r="S4">
-        <v>0.005279230701098949</v>
+        <v>-0.007510468364508206</v>
       </c>
       <c r="T4">
-        <v>-4.166845962496937E-10</v>
+        <v>-5.680641325560948</v>
       </c>
       <c r="U4">
-        <v>-7.803987007578966</v>
+        <v>-7.636009754720626E-10</v>
       </c>
       <c r="V4">
-        <v>-5.41480925470713</v>
+        <v>2.265140914543404E-10</v>
       </c>
       <c r="W4">
-        <v>-0.009951242903273629</v>
+        <v>0.006767617879231275</v>
       </c>
       <c r="X4">
-        <v>0.002739109991135168</v>
+        <v>-0.003004898911429588</v>
       </c>
       <c r="Y4">
-        <v>0.003317102838584237</v>
+        <v>-0.008115287550059552</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-49.15705482648663</v>
       </c>
       <c r="AA4">
-        <v>-169.6110161338007</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>64.84444377535816</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>77.70204204189234</v>
+        <v>-107.1291017604352</v>
       </c>
       <c r="AD4">
-        <v>77.70204359784499</v>
+        <v>-107.1290966123817</v>
       </c>
       <c r="AE4">
-        <v>77.70203533783589</v>
+        <v>-107.1290966123891</v>
       </c>
       <c r="AF4">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278244</v>
       </c>
       <c r="AG4">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="AH4">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="AI4">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="AJ4">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="AK4">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="AL4">
-        <v>-4.775555041063012</v>
+        <v>-1.174854820720031</v>
       </c>
       <c r="AM4">
-        <v>-120.4649322159348</v>
+        <v>-130.1685625970616</v>
       </c>
       <c r="AN4">
-        <v>106.8663009952652</v>
+        <v>122.5002041917308</v>
       </c>
       <c r="AO4">
-        <v>-4.308903017906394</v>
+        <v>-4.157054826293857</v>
       </c>
       <c r="AP4">
-        <v>-124.6110161336328</v>
+        <v>-125.4570209785861</v>
       </c>
       <c r="AQ4">
-        <v>109.8444437755527</v>
+        <v>120.0875191122162</v>
       </c>
     </row>
   </sheetData>
@@ -7087,130 +7087,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003294274620604923</v>
+        <v>0.002466894490126003</v>
       </c>
       <c r="C2">
-        <v>0.003294275452783691</v>
+        <v>0.002466894479327424</v>
       </c>
       <c r="D2">
-        <v>0.003294273802847429</v>
+        <v>0.002466894479327032</v>
       </c>
       <c r="E2">
-        <v>0.004325701170287405</v>
+        <v>2.749537948862151</v>
       </c>
       <c r="F2">
-        <v>3.869926009058734</v>
+        <v>0.00594027103357038</v>
       </c>
       <c r="G2">
-        <v>2.547201952113443</v>
+        <v>0.005940271033567888</v>
       </c>
       <c r="H2">
-        <v>0.03803900677981609</v>
+        <v>0.02848524395873306</v>
       </c>
       <c r="I2">
-        <v>0.03803901638898881</v>
+        <v>0.02848524383404179</v>
       </c>
       <c r="J2">
-        <v>0.0380389973371659</v>
+        <v>0.02848524383403728</v>
       </c>
       <c r="K2">
-        <v>0.04994889470198625</v>
+        <v>31.74892949845309</v>
       </c>
       <c r="L2">
-        <v>44.68605646147989</v>
+        <v>0.06859234160582392</v>
       </c>
       <c r="M2">
-        <v>29.41255465466073</v>
+        <v>0.06859234160579514</v>
       </c>
       <c r="N2">
-        <v>0.0001733282132004562</v>
+        <v>9.613456662027429E-14</v>
       </c>
       <c r="O2">
-        <v>2.477313514077414E-15</v>
+        <v>0.02471661008520884</v>
       </c>
       <c r="P2">
-        <v>3.659073004069259E-13</v>
+        <v>-0.02461941354507956</v>
       </c>
       <c r="Q2">
-        <v>-4.980087862266336E-05</v>
+        <v>-7.060740116963439E-11</v>
       </c>
       <c r="R2">
-        <v>-1.882896542898314E-10</v>
+        <v>-0.05454870176142135</v>
       </c>
       <c r="S2">
-        <v>-4.391557152346032E-11</v>
+        <v>0.05445478642940507</v>
       </c>
       <c r="T2">
-        <v>-0.02528040916583542</v>
+        <v>1.90159905161824E-13</v>
       </c>
       <c r="U2">
-        <v>4.217267036846456E-13</v>
+        <v>-0.006873648110924898</v>
       </c>
       <c r="V2">
-        <v>-2.135369311358013E-13</v>
+        <v>-0.007302741617022661</v>
       </c>
       <c r="W2">
-        <v>0.06546553371627593</v>
+        <v>-1.742780796843794E-11</v>
       </c>
       <c r="X2">
-        <v>-1.763438236933336E-10</v>
+        <v>0.03810085767431817</v>
       </c>
       <c r="Y2">
-        <v>-1.642875976647083E-10</v>
+        <v>0.08535514365093951</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-41.74430571758281</v>
       </c>
       <c r="AA2">
-        <v>-170.5649954175247</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>37.0387201988786</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-98.35565987595234</v>
+        <v>138.13817399709</v>
       </c>
       <c r="AD2">
-        <v>9.374023468544289</v>
+        <v>66.56270439813233</v>
       </c>
       <c r="AE2">
-        <v>-142.8929530514158</v>
+        <v>66.56270439813807</v>
       </c>
       <c r="AF2">
-        <v>0.3837112302340936</v>
+        <v>0.5199773961133466</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.000000000006553</v>
       </c>
       <c r="AH2">
-        <v>0.3837112302244141</v>
+        <v>0.5204858233912609</v>
       </c>
       <c r="AI2">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="AK2">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="AL2">
-        <v>-0.07043074203077801</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-106.0394703642315</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>106.023380610698</v>
       </c>
       <c r="AO2">
-        <v>-8.312073893397944</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7218,130 +7218,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.608053223016119</v>
       </c>
       <c r="C3">
-        <v>2.764903772674741</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.101035304050801</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002162850608057347</v>
+        <v>0.00297013573748294</v>
       </c>
       <c r="F3">
-        <v>0.002162850949037328</v>
+        <v>0.002970135548251237</v>
       </c>
       <c r="G3">
-        <v>0.002162850404877146</v>
+        <v>0.002970135548249332</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>18.56819922359204</v>
       </c>
       <c r="I3">
-        <v>31.92635874874348</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>24.26066596741275</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0249744476155771</v>
+        <v>0.03429617335131006</v>
       </c>
       <c r="L3">
-        <v>0.02497445155287478</v>
+        <v>0.03429617116625056</v>
       </c>
       <c r="M3">
-        <v>0.02497444526945423</v>
+        <v>0.03429617116622857</v>
       </c>
       <c r="N3">
-        <v>-1.800674882003811E-09</v>
+        <v>-1.91340828817049E-11</v>
       </c>
       <c r="O3">
-        <v>-1.532652106069347E-10</v>
+        <v>-1.183257607129763E-09</v>
       </c>
       <c r="P3">
-        <v>-3.204177818406973E-11</v>
+        <v>-2.961833907658933E-09</v>
       </c>
       <c r="Q3">
-        <v>2.489966759862579E-05</v>
+        <v>6.24521005533472E-15</v>
       </c>
       <c r="R3">
-        <v>-1.259213372975726E-13</v>
+        <v>0.0272743507203821</v>
       </c>
       <c r="S3">
-        <v>1.244195916064494E-13</v>
+        <v>-0.02722739450965102</v>
       </c>
       <c r="T3">
-        <v>-4.46074573130167E-10</v>
+        <v>-6.935437869495005E-13</v>
       </c>
       <c r="U3">
-        <v>-1.176633455028686E-10</v>
+        <v>-2.073052579658029E-09</v>
       </c>
       <c r="V3">
-        <v>-1.433577083846394E-10</v>
+        <v>1.046161213127537E-09</v>
       </c>
       <c r="W3">
-        <v>-0.03273276720550228</v>
+        <v>7.83127096743689E-14</v>
       </c>
       <c r="X3">
-        <v>7.022148065687304E-14</v>
+        <v>-0.01905042968220845</v>
       </c>
       <c r="Y3">
-        <v>7.32797632316361E-14</v>
+        <v>-0.04267757163546457</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-41.74430571758281</v>
       </c>
       <c r="AA3">
-        <v>-170.5649954175247</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>37.0387201988786</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>81.64434147531615</v>
+        <v>-113.43729716832</v>
       </c>
       <c r="AD3">
-        <v>81.64434107506575</v>
+        <v>-113.4372942506218</v>
       </c>
       <c r="AE3">
-        <v>81.64433895785058</v>
+        <v>-113.4372942505967</v>
       </c>
       <c r="AF3">
-        <v>0.7838620305992607</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.000000000000131</v>
       </c>
       <c r="AH3">
-        <v>0.7838620305997251</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="AI3">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="AK3">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="AL3">
-        <v>-5.141094698820867</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO3">
-        <v>-8.312073893397944</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7349,130 +7349,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.608053223016118</v>
       </c>
       <c r="C4">
-        <v>2.764903772674741</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.101035304050801</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002162850608055723</v>
+        <v>0.002970135737483693</v>
       </c>
       <c r="F4">
-        <v>0.002162850949037328</v>
+        <v>0.002970135548250615</v>
       </c>
       <c r="G4">
-        <v>0.00216285040487871</v>
+        <v>0.002970135548249251</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>18.56819922359202</v>
       </c>
       <c r="I4">
-        <v>31.92635874874348</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>24.26066596741275</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02497444761555835</v>
+        <v>0.03429617335131875</v>
       </c>
       <c r="L4">
-        <v>0.02497445155287478</v>
+        <v>0.03429617116624339</v>
       </c>
       <c r="M4">
-        <v>0.02497444526947228</v>
+        <v>0.03429617116622764</v>
       </c>
       <c r="N4">
-        <v>-1.800673408189503E-09</v>
+        <v>-1.913352403839994E-11</v>
       </c>
       <c r="O4">
-        <v>-1.532737527183769E-10</v>
+        <v>-1.183241384860761E-09</v>
       </c>
       <c r="P4">
-        <v>-3.205274151471056E-11</v>
+        <v>-2.961823049768124E-09</v>
       </c>
       <c r="Q4">
-        <v>2.489966760221551E-05</v>
+        <v>6.245210055344906E-15</v>
       </c>
       <c r="R4">
-        <v>-1.259213372975726E-13</v>
+        <v>0.02727435072037382</v>
       </c>
       <c r="S4">
-        <v>1.244195916065612E-13</v>
+        <v>-0.02722739450965298</v>
       </c>
       <c r="T4">
-        <v>-4.46094077581308E-10</v>
+        <v>-6.944832291798275E-13</v>
       </c>
       <c r="U4">
-        <v>-1.176560881053774E-10</v>
+        <v>-2.073057245139365E-09</v>
       </c>
       <c r="V4">
-        <v>-1.433659806502011E-10</v>
+        <v>1.04617060320224E-09</v>
       </c>
       <c r="W4">
-        <v>-0.03273276720547771</v>
+        <v>7.831270967438806E-14</v>
       </c>
       <c r="X4">
-        <v>7.022148065687304E-14</v>
+        <v>-0.01905042968220815</v>
       </c>
       <c r="Y4">
-        <v>7.327976323165202E-14</v>
+        <v>-0.04267757163546167</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-41.74430571758281</v>
       </c>
       <c r="AA4">
-        <v>-170.5649954175247</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>37.0387201988786</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>81.64434147530983</v>
+        <v>-113.4372971683137</v>
       </c>
       <c r="AD4">
-        <v>81.64434107506575</v>
+        <v>-113.437294250614</v>
       </c>
       <c r="AE4">
-        <v>81.64433895786765</v>
+        <v>-113.4372942505931</v>
       </c>
       <c r="AF4">
-        <v>0.7838620305992609</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.000000000000132</v>
       </c>
       <c r="AH4">
-        <v>0.7838620305997249</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="AI4">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="AK4">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="AL4">
-        <v>-5.141094698820842</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO4">
-        <v>-8.312073893397944</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
   </sheetData>
@@ -7624,130 +7624,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003294274620604923</v>
+        <v>0.002466894490126003</v>
       </c>
       <c r="C2">
-        <v>0.003294275452783691</v>
+        <v>0.002466894479327424</v>
       </c>
       <c r="D2">
-        <v>0.003294273802847429</v>
+        <v>0.002466894479327032</v>
       </c>
       <c r="E2">
-        <v>0.004325701170287405</v>
+        <v>2.749537948862151</v>
       </c>
       <c r="F2">
-        <v>3.869926009058734</v>
+        <v>0.00594027103357038</v>
       </c>
       <c r="G2">
-        <v>2.547201952113443</v>
+        <v>0.005940271033567888</v>
       </c>
       <c r="H2">
-        <v>0.03803900677981609</v>
+        <v>0.02848524395873306</v>
       </c>
       <c r="I2">
-        <v>0.03803901638898881</v>
+        <v>0.02848524383404179</v>
       </c>
       <c r="J2">
-        <v>0.0380389973371659</v>
+        <v>0.02848524383403728</v>
       </c>
       <c r="K2">
-        <v>0.04994889470198625</v>
+        <v>31.74892949845309</v>
       </c>
       <c r="L2">
-        <v>44.68605646147989</v>
+        <v>0.06859234160582392</v>
       </c>
       <c r="M2">
-        <v>29.41255465466073</v>
+        <v>0.06859234160579514</v>
       </c>
       <c r="N2">
-        <v>0.0001733282132004562</v>
+        <v>9.613456662027429E-14</v>
       </c>
       <c r="O2">
-        <v>2.477313514077414E-15</v>
+        <v>0.02471661008520884</v>
       </c>
       <c r="P2">
-        <v>3.659073004069259E-13</v>
+        <v>-0.02461941354507956</v>
       </c>
       <c r="Q2">
-        <v>-4.980087862266336E-05</v>
+        <v>-7.060740116963439E-11</v>
       </c>
       <c r="R2">
-        <v>-1.882896542898314E-10</v>
+        <v>-0.05454870176142135</v>
       </c>
       <c r="S2">
-        <v>-4.391557152346032E-11</v>
+        <v>0.05445478642940507</v>
       </c>
       <c r="T2">
-        <v>-0.02528040916583542</v>
+        <v>1.90159905161824E-13</v>
       </c>
       <c r="U2">
-        <v>4.217267036846456E-13</v>
+        <v>-0.006873648110924898</v>
       </c>
       <c r="V2">
-        <v>-2.135369311358013E-13</v>
+        <v>-0.007302741617022661</v>
       </c>
       <c r="W2">
-        <v>0.06546553371627593</v>
+        <v>-1.742780796843794E-11</v>
       </c>
       <c r="X2">
-        <v>-1.763438236933336E-10</v>
+        <v>0.03810085767431817</v>
       </c>
       <c r="Y2">
-        <v>-1.642875976647083E-10</v>
+        <v>0.08535514365093951</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-41.74430571758281</v>
       </c>
       <c r="AA2">
-        <v>-170.5649954175247</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>37.0387201988786</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-98.35565987595234</v>
+        <v>138.13817399709</v>
       </c>
       <c r="AD2">
-        <v>9.374023468544289</v>
+        <v>66.56270439813233</v>
       </c>
       <c r="AE2">
-        <v>-142.8929530514158</v>
+        <v>66.56270439813807</v>
       </c>
       <c r="AF2">
-        <v>0.3837112302340936</v>
+        <v>0.5199773961133466</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.000000000006553</v>
       </c>
       <c r="AH2">
-        <v>0.3837112302244141</v>
+        <v>0.5204858233912609</v>
       </c>
       <c r="AI2">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="AK2">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="AL2">
-        <v>-0.07043074203077801</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-106.0394703642315</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>106.023380610698</v>
       </c>
       <c r="AO2">
-        <v>-8.312073893397944</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7755,130 +7755,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.608053223016119</v>
       </c>
       <c r="C3">
-        <v>2.764903772674741</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.101035304050801</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002162850608057347</v>
+        <v>0.00297013573748294</v>
       </c>
       <c r="F3">
-        <v>0.002162850949037328</v>
+        <v>0.002970135548251237</v>
       </c>
       <c r="G3">
-        <v>0.002162850404877146</v>
+        <v>0.002970135548249332</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>18.56819922359204</v>
       </c>
       <c r="I3">
-        <v>31.92635874874348</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>24.26066596741275</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0249744476155771</v>
+        <v>0.03429617335131006</v>
       </c>
       <c r="L3">
-        <v>0.02497445155287478</v>
+        <v>0.03429617116625056</v>
       </c>
       <c r="M3">
-        <v>0.02497444526945423</v>
+        <v>0.03429617116622857</v>
       </c>
       <c r="N3">
-        <v>-1.800674882003811E-09</v>
+        <v>-1.91340828817049E-11</v>
       </c>
       <c r="O3">
-        <v>-1.532652106069347E-10</v>
+        <v>-1.183257607129763E-09</v>
       </c>
       <c r="P3">
-        <v>-3.204177818406973E-11</v>
+        <v>-2.961833907658933E-09</v>
       </c>
       <c r="Q3">
-        <v>2.489966759862579E-05</v>
+        <v>6.24521005533472E-15</v>
       </c>
       <c r="R3">
-        <v>-1.259213372975726E-13</v>
+        <v>0.0272743507203821</v>
       </c>
       <c r="S3">
-        <v>1.244195916064494E-13</v>
+        <v>-0.02722739450965102</v>
       </c>
       <c r="T3">
-        <v>-4.46074573130167E-10</v>
+        <v>-6.935437869495005E-13</v>
       </c>
       <c r="U3">
-        <v>-1.176633455028686E-10</v>
+        <v>-2.073052579658029E-09</v>
       </c>
       <c r="V3">
-        <v>-1.433577083846394E-10</v>
+        <v>1.046161213127537E-09</v>
       </c>
       <c r="W3">
-        <v>-0.03273276720550228</v>
+        <v>7.83127096743689E-14</v>
       </c>
       <c r="X3">
-        <v>7.022148065687304E-14</v>
+        <v>-0.01905042968220845</v>
       </c>
       <c r="Y3">
-        <v>7.32797632316361E-14</v>
+        <v>-0.04267757163546457</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-41.74430571758281</v>
       </c>
       <c r="AA3">
-        <v>-170.5649954175247</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>37.0387201988786</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>81.64434147531615</v>
+        <v>-113.43729716832</v>
       </c>
       <c r="AD3">
-        <v>81.64434107506575</v>
+        <v>-113.4372942506218</v>
       </c>
       <c r="AE3">
-        <v>81.64433895785058</v>
+        <v>-113.4372942505967</v>
       </c>
       <c r="AF3">
-        <v>0.7838620305992607</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.000000000000131</v>
       </c>
       <c r="AH3">
-        <v>0.7838620305997251</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="AI3">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="AK3">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="AL3">
-        <v>-5.141094698820867</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO3">
-        <v>-8.312073893397944</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7886,130 +7886,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.608053223016118</v>
       </c>
       <c r="C4">
-        <v>2.764903772674741</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.101035304050801</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002162850608055723</v>
+        <v>0.002970135737483693</v>
       </c>
       <c r="F4">
-        <v>0.002162850949037328</v>
+        <v>0.002970135548250615</v>
       </c>
       <c r="G4">
-        <v>0.00216285040487871</v>
+        <v>0.002970135548249251</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>18.56819922359202</v>
       </c>
       <c r="I4">
-        <v>31.92635874874348</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>24.26066596741275</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02497444761555835</v>
+        <v>0.03429617335131875</v>
       </c>
       <c r="L4">
-        <v>0.02497445155287478</v>
+        <v>0.03429617116624339</v>
       </c>
       <c r="M4">
-        <v>0.02497444526947228</v>
+        <v>0.03429617116622764</v>
       </c>
       <c r="N4">
-        <v>-1.800673408189503E-09</v>
+        <v>-1.913352403839994E-11</v>
       </c>
       <c r="O4">
-        <v>-1.532737527183769E-10</v>
+        <v>-1.183241384860761E-09</v>
       </c>
       <c r="P4">
-        <v>-3.205274151471056E-11</v>
+        <v>-2.961823049768124E-09</v>
       </c>
       <c r="Q4">
-        <v>2.489966760221551E-05</v>
+        <v>6.245210055344906E-15</v>
       </c>
       <c r="R4">
-        <v>-1.259213372975726E-13</v>
+        <v>0.02727435072037382</v>
       </c>
       <c r="S4">
-        <v>1.244195916065612E-13</v>
+        <v>-0.02722739450965298</v>
       </c>
       <c r="T4">
-        <v>-4.46094077581308E-10</v>
+        <v>-6.944832291798275E-13</v>
       </c>
       <c r="U4">
-        <v>-1.176560881053774E-10</v>
+        <v>-2.073057245139365E-09</v>
       </c>
       <c r="V4">
-        <v>-1.433659806502011E-10</v>
+        <v>1.04617060320224E-09</v>
       </c>
       <c r="W4">
-        <v>-0.03273276720547771</v>
+        <v>7.831270967438806E-14</v>
       </c>
       <c r="X4">
-        <v>7.022148065687304E-14</v>
+        <v>-0.01905042968220815</v>
       </c>
       <c r="Y4">
-        <v>7.327976323165202E-14</v>
+        <v>-0.04267757163546167</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-41.74430571758281</v>
       </c>
       <c r="AA4">
-        <v>-170.5649954175247</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>37.0387201988786</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>81.64434147530983</v>
+        <v>-113.4372971683137</v>
       </c>
       <c r="AD4">
-        <v>81.64434107506575</v>
+        <v>-113.437294250614</v>
       </c>
       <c r="AE4">
-        <v>81.64433895786765</v>
+        <v>-113.4372942505931</v>
       </c>
       <c r="AF4">
-        <v>0.7838620305992609</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.000000000000132</v>
       </c>
       <c r="AH4">
-        <v>0.7838620305997249</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="AI4">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="AK4">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="AL4">
-        <v>-5.141094698820842</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-149.4085172538034</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>130.8537654848539</v>
       </c>
       <c r="AO4">
-        <v>-8.312073893397944</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-148.3705990935352</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>124.0256852899936</v>
       </c>
     </row>
   </sheetData>
@@ -8161,130 +8161,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005815853128431323</v>
+        <v>0.0005545524518061288</v>
       </c>
       <c r="C2">
-        <v>0.000581585535319676</v>
+        <v>0.0005545524493790885</v>
       </c>
       <c r="D2">
-        <v>0.0005815850929120667</v>
+        <v>0.0005545524493790538</v>
       </c>
       <c r="E2">
-        <v>0.001968799053422836</v>
+        <v>1.025341518640089</v>
       </c>
       <c r="F2">
-        <v>1.198845647906661</v>
+        <v>0.002215210932155228</v>
       </c>
       <c r="G2">
-        <v>0.9743634337683421</v>
+        <v>0.00221521093215428</v>
       </c>
       <c r="H2">
-        <v>0.006715568738534303</v>
+        <v>0.006403420146600709</v>
       </c>
       <c r="I2">
-        <v>0.006715571307472151</v>
+        <v>0.006403420118575661</v>
       </c>
       <c r="J2">
-        <v>0.006715566198989106</v>
+        <v>0.006403420118575261</v>
       </c>
       <c r="K2">
-        <v>0.02273373326947909</v>
+        <v>11.8396240359631</v>
       </c>
       <c r="L2">
-        <v>13.84307715071444</v>
+        <v>0.02557905255983246</v>
       </c>
       <c r="M2">
-        <v>11.25097981549361</v>
+        <v>0.02557905255982151</v>
       </c>
       <c r="N2">
-        <v>-0.003849887097177371</v>
+        <v>0.003505218881447789</v>
       </c>
       <c r="O2">
-        <v>-0.001280786499961501</v>
+        <v>0.002897814781713285</v>
       </c>
       <c r="P2">
-        <v>0.005136072261752631</v>
+        <v>-0.006398123810501221</v>
       </c>
       <c r="Q2">
-        <v>-0.005705328135890512</v>
+        <v>-5.24226219027749</v>
       </c>
       <c r="R2">
-        <v>-7.18306739997969</v>
+        <v>-0.02360900593715605</v>
       </c>
       <c r="S2">
-        <v>-4.738642056667806</v>
+        <v>0.0163861655847987</v>
       </c>
       <c r="T2">
-        <v>-0.005107780216243859</v>
+        <v>0.003927594051237718</v>
       </c>
       <c r="U2">
-        <v>0.005406677792914938</v>
+        <v>-0.005346759677857457</v>
       </c>
       <c r="V2">
-        <v>-0.001086831050855677</v>
+        <v>0.0007027769436407765</v>
       </c>
       <c r="W2">
-        <v>0.02488805845633592</v>
+        <v>-5.263811395243419</v>
       </c>
       <c r="X2">
-        <v>-7.202556200500958</v>
+        <v>0.006224351977143758</v>
       </c>
       <c r="Y2">
-        <v>-4.736174996522728</v>
+        <v>0.02528347169725863</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-43.78646814992267</v>
       </c>
       <c r="AA2">
-        <v>-164.0419281637058</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>64.13570018318165</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-108.4603942815339</v>
+        <v>136.0960115647501</v>
       </c>
       <c r="AD2">
-        <v>15.88045091653239</v>
+        <v>64.5205419658088</v>
       </c>
       <c r="AE2">
-        <v>-115.8493810980392</v>
+        <v>64.5205419657986</v>
       </c>
       <c r="AF2">
-        <v>0.9305405005570508</v>
+        <v>0.8379929791010424</v>
       </c>
       <c r="AG2">
-        <v>0.7848521014139239</v>
+        <v>1.000000000000763</v>
       </c>
       <c r="AH2">
-        <v>0.8463562973200961</v>
+        <v>0.9390604356298995</v>
       </c>
       <c r="AI2">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="AJ2">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="AK2">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="AL2">
-        <v>-2.070858898527459</v>
+        <v>-8.692698158235416</v>
       </c>
       <c r="AM2">
-        <v>-131.7373295207326</v>
+        <v>-118.4884237755319</v>
       </c>
       <c r="AN2">
-        <v>112.9875977716212</v>
+        <v>116.7866489320772</v>
       </c>
       <c r="AO2">
-        <v>-5.549016348167304</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP2">
-        <v>-119.0419281637489</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ2">
-        <v>109.1357001831912</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8292,130 +8292,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.8165211221592247</v>
       </c>
       <c r="C3">
-        <v>1.057390965727649</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8394791924992789</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0009843995371403029</v>
+        <v>0.001107605548378915</v>
       </c>
       <c r="F3">
-        <v>0.0009843996397531536</v>
+        <v>0.001107605477811624</v>
       </c>
       <c r="G3">
-        <v>0.0009843994972446235</v>
+        <v>0.001107605477810971</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.428373793552874</v>
       </c>
       <c r="I3">
-        <v>12.20969917403073</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.693470755370967</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01136686675516194</v>
+        <v>0.01278952723024979</v>
       </c>
       <c r="L3">
-        <v>0.01136686794003308</v>
+        <v>0.01278952641540891</v>
       </c>
       <c r="M3">
-        <v>0.01136686629448631</v>
+        <v>0.01278952641540137</v>
       </c>
       <c r="N3">
-        <v>-9.385959156702559E-10</v>
+        <v>-3.333533714895848</v>
       </c>
       <c r="O3">
-        <v>-5.590378272359511</v>
+        <v>-1.782337540019558E-10</v>
       </c>
       <c r="P3">
-        <v>-3.523626572760595</v>
+        <v>-1.269461333479087E-09</v>
       </c>
       <c r="Q3">
-        <v>0.00285266380469098</v>
+        <v>-0.003604890475085971</v>
       </c>
       <c r="R3">
-        <v>-0.008210571545820335</v>
+        <v>0.01180450302024063</v>
       </c>
       <c r="S3">
-        <v>0.005363064413071533</v>
+        <v>-0.008193083177336651</v>
       </c>
       <c r="T3">
-        <v>-4.084611218320476E-10</v>
+        <v>-3.333533715564022</v>
       </c>
       <c r="U3">
-        <v>-5.590378272847452</v>
+        <v>-1.045318278903604E-09</v>
       </c>
       <c r="V3">
-        <v>-3.523626574080262</v>
+        <v>4.152960678659081E-10</v>
       </c>
       <c r="W3">
-        <v>-0.01244402942727826</v>
+        <v>0.007169711607569794</v>
       </c>
       <c r="X3">
-        <v>0.001533828385472785</v>
+        <v>-0.003112176299928946</v>
       </c>
       <c r="Y3">
-        <v>0.004129533711782052</v>
+        <v>-0.0126417357893298</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-43.78646814992267</v>
       </c>
       <c r="AA3">
-        <v>-164.0419281637058</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>64.13570018318165</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>71.53960706970339</v>
+        <v>-115.4794596006428</v>
       </c>
       <c r="AD3">
-        <v>71.53960856887664</v>
+        <v>-115.4794566829728</v>
       </c>
       <c r="AE3">
-        <v>71.53960265280799</v>
+        <v>-115.479456682939</v>
       </c>
       <c r="AF3">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844037</v>
       </c>
       <c r="AG3">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="AH3">
-        <v>0.8516705368398013</v>
+        <v>0.9045377971462235</v>
       </c>
       <c r="AI3">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="AJ3">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="AK3">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="AL3">
-        <v>-5.292660328418042</v>
+        <v>7.181611621190969</v>
       </c>
       <c r="AM3">
-        <v>-112.3238428218692</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN3">
-        <v>106.1154176972715</v>
+        <v>125.12124607394</v>
       </c>
       <c r="AO3">
-        <v>-5.549016348167304</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP3">
-        <v>-119.0419281637489</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ3">
-        <v>109.1357001831912</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8423,130 +8423,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8165211221592239</v>
       </c>
       <c r="C4">
-        <v>1.057390965727647</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8394791924992789</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0009843995371402378</v>
+        <v>0.001107605548379091</v>
       </c>
       <c r="F4">
-        <v>0.0009843996397531536</v>
+        <v>0.001107605477811443</v>
       </c>
       <c r="G4">
-        <v>0.0009843994972448826</v>
+        <v>0.001107605477810971</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.428373793552865</v>
       </c>
       <c r="I4">
-        <v>12.20969917403071</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.693470755370967</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01136686675516119</v>
+        <v>0.01278952723025183</v>
       </c>
       <c r="L4">
-        <v>0.01136686794003308</v>
+        <v>0.01278952641540682</v>
       </c>
       <c r="M4">
-        <v>0.01136686629448931</v>
+        <v>0.01278952641540137</v>
       </c>
       <c r="N4">
-        <v>-9.385912746712015E-10</v>
+        <v>-3.333533714895842</v>
       </c>
       <c r="O4">
-        <v>-5.590378272359504</v>
+        <v>-1.782332581882412E-10</v>
       </c>
       <c r="P4">
-        <v>-3.523626572760595</v>
+        <v>-1.269464953007095E-09</v>
       </c>
       <c r="Q4">
-        <v>0.002852663804688332</v>
+        <v>-0.003604890475088942</v>
       </c>
       <c r="R4">
-        <v>-0.008210571545820335</v>
+        <v>0.0118045030202383</v>
       </c>
       <c r="S4">
-        <v>0.005363064413075123</v>
+        <v>-0.008193083177336651</v>
       </c>
       <c r="T4">
-        <v>-4.084730423484149E-10</v>
+        <v>-3.333533715564021</v>
       </c>
       <c r="U4">
-        <v>-5.590378272847445</v>
+        <v>-1.045315337986914E-09</v>
       </c>
       <c r="V4">
-        <v>-3.523626574080261</v>
+        <v>4.152907663511066E-10</v>
       </c>
       <c r="W4">
-        <v>-0.012444029427278</v>
+        <v>0.007169711607569732</v>
       </c>
       <c r="X4">
-        <v>0.001533828385472785</v>
+        <v>-0.00311217629992994</v>
       </c>
       <c r="Y4">
-        <v>0.004129533711780312</v>
+        <v>-0.0126417357893298</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-43.78646814992267</v>
       </c>
       <c r="AA4">
-        <v>-164.0419281637058</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>64.13570018318165</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>71.53960706971472</v>
+        <v>-115.4794596006619</v>
       </c>
       <c r="AD4">
-        <v>71.53960856887664</v>
+        <v>-115.4794566829655</v>
       </c>
       <c r="AE4">
-        <v>71.5396026528382</v>
+        <v>-115.479456682939</v>
       </c>
       <c r="AF4">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844038</v>
       </c>
       <c r="AG4">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="AH4">
-        <v>0.851670536839801</v>
+        <v>0.9045377971462233</v>
       </c>
       <c r="AI4">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="AJ4">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="AK4">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="AL4">
-        <v>-5.292660328418039</v>
+        <v>7.181611621190973</v>
       </c>
       <c r="AM4">
-        <v>-112.3238428218692</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN4">
-        <v>106.1154176972715</v>
+        <v>125.1212460739401</v>
       </c>
       <c r="AO4">
-        <v>-5.549016348167304</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP4">
-        <v>-119.0419281637489</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ4">
-        <v>109.1357001831912</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
   </sheetData>
@@ -8698,130 +8698,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005815853128431323</v>
+        <v>0.0005545524518061288</v>
       </c>
       <c r="C2">
-        <v>0.000581585535319676</v>
+        <v>0.0005545524493790885</v>
       </c>
       <c r="D2">
-        <v>0.0005815850929120667</v>
+        <v>0.0005545524493790538</v>
       </c>
       <c r="E2">
-        <v>0.001968799053422836</v>
+        <v>1.025341518640089</v>
       </c>
       <c r="F2">
-        <v>1.198845647906661</v>
+        <v>0.002215210932155228</v>
       </c>
       <c r="G2">
-        <v>0.9743634337683421</v>
+        <v>0.00221521093215428</v>
       </c>
       <c r="H2">
-        <v>0.006715568738534303</v>
+        <v>0.006403420146600709</v>
       </c>
       <c r="I2">
-        <v>0.006715571307472151</v>
+        <v>0.006403420118575661</v>
       </c>
       <c r="J2">
-        <v>0.006715566198989106</v>
+        <v>0.006403420118575261</v>
       </c>
       <c r="K2">
-        <v>0.02273373326947909</v>
+        <v>11.8396240359631</v>
       </c>
       <c r="L2">
-        <v>13.84307715071444</v>
+        <v>0.02557905255983246</v>
       </c>
       <c r="M2">
-        <v>11.25097981549361</v>
+        <v>0.02557905255982151</v>
       </c>
       <c r="N2">
-        <v>-0.003849887097177371</v>
+        <v>0.003505218881447789</v>
       </c>
       <c r="O2">
-        <v>-0.001280786499961501</v>
+        <v>0.002897814781713285</v>
       </c>
       <c r="P2">
-        <v>0.005136072261752631</v>
+        <v>-0.006398123810501221</v>
       </c>
       <c r="Q2">
-        <v>-0.005705328135890512</v>
+        <v>-5.24226219027749</v>
       </c>
       <c r="R2">
-        <v>-7.18306739997969</v>
+        <v>-0.02360900593715605</v>
       </c>
       <c r="S2">
-        <v>-4.738642056667806</v>
+        <v>0.0163861655847987</v>
       </c>
       <c r="T2">
-        <v>-0.005107780216243859</v>
+        <v>0.003927594051237718</v>
       </c>
       <c r="U2">
-        <v>0.005406677792914938</v>
+        <v>-0.005346759677857457</v>
       </c>
       <c r="V2">
-        <v>-0.001086831050855677</v>
+        <v>0.0007027769436407765</v>
       </c>
       <c r="W2">
-        <v>0.02488805845633592</v>
+        <v>-5.263811395243419</v>
       </c>
       <c r="X2">
-        <v>-7.202556200500958</v>
+        <v>0.006224351977143758</v>
       </c>
       <c r="Y2">
-        <v>-4.736174996522728</v>
+        <v>0.02528347169725863</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-43.78646814992267</v>
       </c>
       <c r="AA2">
-        <v>-164.0419281637058</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>64.13570018318165</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-108.4603942815339</v>
+        <v>136.0960115647501</v>
       </c>
       <c r="AD2">
-        <v>15.88045091653239</v>
+        <v>64.5205419658088</v>
       </c>
       <c r="AE2">
-        <v>-115.8493810980392</v>
+        <v>64.5205419657986</v>
       </c>
       <c r="AF2">
-        <v>0.9305405005570508</v>
+        <v>0.8379929791010424</v>
       </c>
       <c r="AG2">
-        <v>0.7848521014139239</v>
+        <v>1.000000000000763</v>
       </c>
       <c r="AH2">
-        <v>0.8463562973200961</v>
+        <v>0.9390604356298995</v>
       </c>
       <c r="AI2">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="AJ2">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="AK2">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="AL2">
-        <v>-2.070858898527459</v>
+        <v>-8.692698158235416</v>
       </c>
       <c r="AM2">
-        <v>-131.7373295207326</v>
+        <v>-118.4884237755319</v>
       </c>
       <c r="AN2">
-        <v>112.9875977716212</v>
+        <v>116.7866489320772</v>
       </c>
       <c r="AO2">
-        <v>-5.549016348167304</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP2">
-        <v>-119.0419281637489</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ2">
-        <v>109.1357001831912</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8829,130 +8829,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.8165211221592247</v>
       </c>
       <c r="C3">
-        <v>1.057390965727649</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8394791924992789</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0009843995371403029</v>
+        <v>0.001107605548378915</v>
       </c>
       <c r="F3">
-        <v>0.0009843996397531536</v>
+        <v>0.001107605477811624</v>
       </c>
       <c r="G3">
-        <v>0.0009843994972446235</v>
+        <v>0.001107605477810971</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.428373793552874</v>
       </c>
       <c r="I3">
-        <v>12.20969917403073</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.693470755370967</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01136686675516194</v>
+        <v>0.01278952723024979</v>
       </c>
       <c r="L3">
-        <v>0.01136686794003308</v>
+        <v>0.01278952641540891</v>
       </c>
       <c r="M3">
-        <v>0.01136686629448631</v>
+        <v>0.01278952641540137</v>
       </c>
       <c r="N3">
-        <v>-9.385959156702559E-10</v>
+        <v>-3.333533714895848</v>
       </c>
       <c r="O3">
-        <v>-5.590378272359511</v>
+        <v>-1.782337540019558E-10</v>
       </c>
       <c r="P3">
-        <v>-3.523626572760595</v>
+        <v>-1.269461333479087E-09</v>
       </c>
       <c r="Q3">
-        <v>0.00285266380469098</v>
+        <v>-0.003604890475085971</v>
       </c>
       <c r="R3">
-        <v>-0.008210571545820335</v>
+        <v>0.01180450302024063</v>
       </c>
       <c r="S3">
-        <v>0.005363064413071533</v>
+        <v>-0.008193083177336651</v>
       </c>
       <c r="T3">
-        <v>-4.084611218320476E-10</v>
+        <v>-3.333533715564022</v>
       </c>
       <c r="U3">
-        <v>-5.590378272847452</v>
+        <v>-1.045318278903604E-09</v>
       </c>
       <c r="V3">
-        <v>-3.523626574080262</v>
+        <v>4.152960678659081E-10</v>
       </c>
       <c r="W3">
-        <v>-0.01244402942727826</v>
+        <v>0.007169711607569794</v>
       </c>
       <c r="X3">
-        <v>0.001533828385472785</v>
+        <v>-0.003112176299928946</v>
       </c>
       <c r="Y3">
-        <v>0.004129533711782052</v>
+        <v>-0.0126417357893298</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-43.78646814992267</v>
       </c>
       <c r="AA3">
-        <v>-164.0419281637058</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>64.13570018318165</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>71.53960706970339</v>
+        <v>-115.4794596006428</v>
       </c>
       <c r="AD3">
-        <v>71.53960856887664</v>
+        <v>-115.4794566829728</v>
       </c>
       <c r="AE3">
-        <v>71.53960265280799</v>
+        <v>-115.479456682939</v>
       </c>
       <c r="AF3">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844037</v>
       </c>
       <c r="AG3">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="AH3">
-        <v>0.8516705368398013</v>
+        <v>0.9045377971462235</v>
       </c>
       <c r="AI3">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="AJ3">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="AK3">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="AL3">
-        <v>-5.292660328418042</v>
+        <v>7.181611621190969</v>
       </c>
       <c r="AM3">
-        <v>-112.3238428218692</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN3">
-        <v>106.1154176972715</v>
+        <v>125.12124607394</v>
       </c>
       <c r="AO3">
-        <v>-5.549016348167304</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP3">
-        <v>-119.0419281637489</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ3">
-        <v>109.1357001831912</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8960,130 +8960,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8165211221592239</v>
       </c>
       <c r="C4">
-        <v>1.057390965727647</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8394791924992789</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0009843995371402378</v>
+        <v>0.001107605548379091</v>
       </c>
       <c r="F4">
-        <v>0.0009843996397531536</v>
+        <v>0.001107605477811443</v>
       </c>
       <c r="G4">
-        <v>0.0009843994972448826</v>
+        <v>0.001107605477810971</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.428373793552865</v>
       </c>
       <c r="I4">
-        <v>12.20969917403071</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.693470755370967</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01136686675516119</v>
+        <v>0.01278952723025183</v>
       </c>
       <c r="L4">
-        <v>0.01136686794003308</v>
+        <v>0.01278952641540682</v>
       </c>
       <c r="M4">
-        <v>0.01136686629448931</v>
+        <v>0.01278952641540137</v>
       </c>
       <c r="N4">
-        <v>-9.385912746712015E-10</v>
+        <v>-3.333533714895842</v>
       </c>
       <c r="O4">
-        <v>-5.590378272359504</v>
+        <v>-1.782332581882412E-10</v>
       </c>
       <c r="P4">
-        <v>-3.523626572760595</v>
+        <v>-1.269464953007095E-09</v>
       </c>
       <c r="Q4">
-        <v>0.002852663804688332</v>
+        <v>-0.003604890475088942</v>
       </c>
       <c r="R4">
-        <v>-0.008210571545820335</v>
+        <v>0.0118045030202383</v>
       </c>
       <c r="S4">
-        <v>0.005363064413075123</v>
+        <v>-0.008193083177336651</v>
       </c>
       <c r="T4">
-        <v>-4.084730423484149E-10</v>
+        <v>-3.333533715564021</v>
       </c>
       <c r="U4">
-        <v>-5.590378272847445</v>
+        <v>-1.045315337986914E-09</v>
       </c>
       <c r="V4">
-        <v>-3.523626574080261</v>
+        <v>4.152907663511066E-10</v>
       </c>
       <c r="W4">
-        <v>-0.012444029427278</v>
+        <v>0.007169711607569732</v>
       </c>
       <c r="X4">
-        <v>0.001533828385472785</v>
+        <v>-0.00311217629992994</v>
       </c>
       <c r="Y4">
-        <v>0.004129533711780312</v>
+        <v>-0.0126417357893298</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-43.78646814992267</v>
       </c>
       <c r="AA4">
-        <v>-164.0419281637058</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>64.13570018318165</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>71.53960706971472</v>
+        <v>-115.4794596006619</v>
       </c>
       <c r="AD4">
-        <v>71.53960856887664</v>
+        <v>-115.4794566829655</v>
       </c>
       <c r="AE4">
-        <v>71.5396026528382</v>
+        <v>-115.479456682939</v>
       </c>
       <c r="AF4">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844038</v>
       </c>
       <c r="AG4">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="AH4">
-        <v>0.851670536839801</v>
+        <v>0.9045377971462233</v>
       </c>
       <c r="AI4">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="AJ4">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="AK4">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="AL4">
-        <v>-5.292660328418039</v>
+        <v>7.181611621190973</v>
       </c>
       <c r="AM4">
-        <v>-112.3238428218692</v>
+        <v>-136.4394934069981</v>
       </c>
       <c r="AN4">
-        <v>106.1154176972715</v>
+        <v>125.1212460739401</v>
       </c>
       <c r="AO4">
-        <v>-5.549016348167304</v>
+        <v>1.213531850035941</v>
       </c>
       <c r="AP4">
-        <v>-119.0419281637489</v>
+        <v>-130.2490184990389</v>
       </c>
       <c r="AQ4">
-        <v>109.1357001831912</v>
+        <v>121.5733531540493</v>
       </c>
     </row>
   </sheetData>
@@ -9235,130 +9235,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002647974408741555</v>
+        <v>0.003564755549244753</v>
       </c>
       <c r="C2">
-        <v>0.002647974402938488</v>
+        <v>0.003564756460645494</v>
       </c>
       <c r="D2">
-        <v>0.002647974402939516</v>
+        <v>0.003564754645664118</v>
       </c>
       <c r="E2">
-        <v>3.985884055591769</v>
+        <v>0.004333624317807362</v>
       </c>
       <c r="F2">
-        <v>0.005045461971653196</v>
+        <v>4.889809056797867</v>
       </c>
       <c r="G2">
-        <v>0.005045461971651689</v>
+        <v>3.077923521317161</v>
       </c>
       <c r="H2">
-        <v>0.03057617475388354</v>
+        <v>0.04116225151903341</v>
       </c>
       <c r="I2">
-        <v>0.03057617468687549</v>
+        <v>0.04116226204298268</v>
       </c>
       <c r="J2">
-        <v>0.03057617468688737</v>
+        <v>0.04116224108538295</v>
       </c>
       <c r="K2">
-        <v>46.0250246490909</v>
+        <v>0.05004038332905578</v>
       </c>
       <c r="L2">
-        <v>0.05825997655039986</v>
+        <v>56.46265150456237</v>
       </c>
       <c r="M2">
-        <v>0.05825997655038246</v>
+        <v>35.54079947155088</v>
       </c>
       <c r="N2">
-        <v>-5.80741909248416E-13</v>
+        <v>0.0001057066698378471</v>
       </c>
       <c r="O2">
-        <v>0.02915661749147536</v>
+        <v>-6.201144309566284E-13</v>
       </c>
       <c r="P2">
-        <v>-0.02909829038249332</v>
+        <v>7.380091425415788E-14</v>
       </c>
       <c r="Q2">
-        <v>3.467736902753062E-10</v>
+        <v>-2.603402436400735E-05</v>
       </c>
       <c r="R2">
-        <v>-0.04973865767079309</v>
+        <v>1.938650319085478E-10</v>
       </c>
       <c r="S2">
-        <v>0.04970336856414861</v>
+        <v>1.54472714506275E-10</v>
       </c>
       <c r="T2">
-        <v>4.510153299517252E-14</v>
+        <v>-0.0296019886367459</v>
       </c>
       <c r="U2">
-        <v>-0.00804265425937601</v>
+        <v>-2.755513062476181E-13</v>
       </c>
       <c r="V2">
-        <v>-0.008291210119542739</v>
+        <v>6.74125610649174E-13</v>
       </c>
       <c r="W2">
-        <v>-2.531457830071392E-10</v>
+        <v>0.06570554578103245</v>
       </c>
       <c r="X2">
-        <v>0.01987263725683129</v>
+        <v>-2.222997204870831E-10</v>
       </c>
       <c r="Y2">
-        <v>0.06919119585415683</v>
+        <v>-1.011595086296906E-10</v>
       </c>
       <c r="Z2">
-        <v>-58.40720162650801</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>175.5146322687812</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>39.42740106770473</v>
       </c>
       <c r="AC2">
-        <v>121.53131083854</v>
+        <v>-101.0140143960345</v>
       </c>
       <c r="AD2">
-        <v>63.62075560806114</v>
+        <v>-4.535817206283355</v>
       </c>
       <c r="AE2">
-        <v>63.62075560808515</v>
+        <v>-140.5212224143719</v>
       </c>
       <c r="AF2">
-        <v>0.5711070883988375</v>
+        <v>0.4152062737902777</v>
       </c>
       <c r="AG2">
-        <v>1.100000023844383</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5713137067019788</v>
+        <v>0.4152062738035633</v>
       </c>
       <c r="AI2">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.02683261092834746</v>
       </c>
       <c r="AM2">
-        <v>-105.6656179757978</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>105.6598069806291</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP2">
-        <v>-138.1579831476276</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>117.9292480532439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9366,130 +9366,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>2.619406804001393</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3.667011207942133</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.529552560904281</v>
       </c>
       <c r="E3">
-        <v>0.002522731257277622</v>
+        <v>0.002166812192188307</v>
       </c>
       <c r="F3">
-        <v>0.00252273102457668</v>
+        <v>0.002166812589050659</v>
       </c>
       <c r="G3">
-        <v>0.002522731024579104</v>
+        <v>0.002166811995194994</v>
       </c>
       <c r="H3">
-        <v>30.24630446814683</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>42.34299816053531</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>29.20875703934788</v>
       </c>
       <c r="K3">
-        <v>0.02912999140964637</v>
+        <v>0.02502019204886564</v>
       </c>
       <c r="L3">
-        <v>0.02912998872264733</v>
+        <v>0.02502019663143736</v>
       </c>
       <c r="M3">
-        <v>0.02912998872267533</v>
+        <v>0.02502018977418279</v>
       </c>
       <c r="N3">
-        <v>1.106214772346862E-10</v>
+        <v>-1.684989091490127E-09</v>
       </c>
       <c r="O3">
-        <v>-3.409190523366211E-10</v>
+        <v>9.895389205585726E-11</v>
       </c>
       <c r="P3">
-        <v>-2.698769643326175E-09</v>
+        <v>9.532970540725278E-11</v>
       </c>
       <c r="Q3">
-        <v>-2.523380814049786E-13</v>
+        <v>1.301645073997308E-05</v>
       </c>
       <c r="R3">
-        <v>0.02486932904752574</v>
+        <v>-8.818582987197466E-14</v>
       </c>
       <c r="S3">
-        <v>-0.02485168525524505</v>
+        <v>-3.859767573109912E-14</v>
       </c>
       <c r="T3">
-        <v>-1.17106179546605E-10</v>
+        <v>-7.545964140056814E-10</v>
       </c>
       <c r="U3">
-        <v>-1.862540238420296E-09</v>
+        <v>-1.083650148838716E-10</v>
       </c>
       <c r="V3">
-        <v>5.012077102821398E-10</v>
+        <v>-3.093260678451923E-11</v>
       </c>
       <c r="W3">
-        <v>-1.00831023756044E-13</v>
+        <v>-0.03285277339539359</v>
       </c>
       <c r="X3">
-        <v>-0.009936319206211222</v>
+        <v>-9.647264291771344E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.03459559803368606</v>
+        <v>1.241271908774927E-13</v>
       </c>
       <c r="Z3">
-        <v>-58.40720162650801</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>175.5146322687812</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>39.42740106770473</v>
       </c>
       <c r="AC3">
-        <v>-116.379248560521</v>
+        <v>78.98598658347112</v>
       </c>
       <c r="AD3">
-        <v>-116.3792434123937</v>
+        <v>78.98598553759287</v>
       </c>
       <c r="AE3">
-        <v>-116.3792434124418</v>
+        <v>78.98598248124385</v>
       </c>
       <c r="AF3">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395296</v>
       </c>
       <c r="AG3">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429723</v>
       </c>
       <c r="AI3">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-7.597588372061134</v>
       </c>
       <c r="AM3">
-        <v>-145.3006619393671</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>124.5503549503629</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP3">
-        <v>-138.1579831476276</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>117.9292480532439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9497,130 +9497,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>2.619406804001392</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.667011207942134</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.529552560904275</v>
       </c>
       <c r="E4">
-        <v>0.002522731257276887</v>
+        <v>0.002166812192186539</v>
       </c>
       <c r="F4">
-        <v>0.002522731024577965</v>
+        <v>0.002166812589050345</v>
       </c>
       <c r="G4">
-        <v>0.00252273102457764</v>
+        <v>0.002166811995196918</v>
       </c>
       <c r="H4">
-        <v>30.24630446814682</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>42.34299816053532</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>29.20875703934781</v>
       </c>
       <c r="K4">
-        <v>0.02912999140963788</v>
+        <v>0.02502019204884524</v>
       </c>
       <c r="L4">
-        <v>0.02912998872266217</v>
+        <v>0.02502019663143374</v>
       </c>
       <c r="M4">
-        <v>0.02912998872265842</v>
+        <v>0.02502018977420502</v>
       </c>
       <c r="N4">
-        <v>1.106309448111371E-10</v>
+        <v>-1.685039147083421E-09</v>
       </c>
       <c r="O4">
-        <v>-3.409243139626289E-10</v>
+        <v>9.896031060128931E-11</v>
       </c>
       <c r="P4">
-        <v>-2.698763933669827E-09</v>
+        <v>9.531179440778896E-11</v>
       </c>
       <c r="Q4">
-        <v>-2.523380814048905E-13</v>
+        <v>1.301645073250567E-05</v>
       </c>
       <c r="R4">
-        <v>0.0248693290475377</v>
+        <v>-8.81858298720336E-14</v>
       </c>
       <c r="S4">
-        <v>-0.02485168525524578</v>
+        <v>-3.859767573120772E-14</v>
       </c>
       <c r="T4">
-        <v>-1.171056844698335E-10</v>
+        <v>-7.546167876197276E-10</v>
       </c>
       <c r="U4">
-        <v>-1.86252364826696E-09</v>
+        <v>-1.083940456393548E-10</v>
       </c>
       <c r="V4">
-        <v>5.012386686506209E-10</v>
+        <v>-3.095165225267162E-11</v>
       </c>
       <c r="W4">
-        <v>-1.008310237560511E-13</v>
+        <v>-0.0328527733953668</v>
       </c>
       <c r="X4">
-        <v>-0.00993631920621805</v>
+        <v>-9.647264291763392E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.0345955980336551</v>
+        <v>1.241271908775798E-13</v>
       </c>
       <c r="Z4">
-        <v>-58.40720162650801</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>175.5146322687812</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>39.42740106770473</v>
       </c>
       <c r="AC4">
-        <v>-116.3792485605293</v>
+        <v>78.98598658348412</v>
       </c>
       <c r="AD4">
-        <v>-116.3792434123896</v>
+        <v>78.98598553763546</v>
       </c>
       <c r="AE4">
-        <v>-116.3792434124167</v>
+        <v>78.98598248120956</v>
       </c>
       <c r="AF4">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395295</v>
       </c>
       <c r="AG4">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429722</v>
       </c>
       <c r="AI4">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-7.59758837206113</v>
       </c>
       <c r="AM4">
-        <v>-145.3006619393671</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>124.5503549503629</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP4">
-        <v>-138.1579831476276</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>117.9292480532439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9772,130 +9772,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002647974408741555</v>
+        <v>0.003564755549244753</v>
       </c>
       <c r="C2">
-        <v>0.002647974402938488</v>
+        <v>0.003564756460645494</v>
       </c>
       <c r="D2">
-        <v>0.002647974402939516</v>
+        <v>0.003564754645664118</v>
       </c>
       <c r="E2">
-        <v>3.985884055591769</v>
+        <v>0.004333624317807362</v>
       </c>
       <c r="F2">
-        <v>0.005045461971653196</v>
+        <v>4.889809056797867</v>
       </c>
       <c r="G2">
-        <v>0.005045461971651689</v>
+        <v>3.077923521317161</v>
       </c>
       <c r="H2">
-        <v>0.03057617475388354</v>
+        <v>0.04116225151903341</v>
       </c>
       <c r="I2">
-        <v>0.03057617468687549</v>
+        <v>0.04116226204298268</v>
       </c>
       <c r="J2">
-        <v>0.03057617468688737</v>
+        <v>0.04116224108538295</v>
       </c>
       <c r="K2">
-        <v>46.0250246490909</v>
+        <v>0.05004038332905578</v>
       </c>
       <c r="L2">
-        <v>0.05825997655039986</v>
+        <v>56.46265150456237</v>
       </c>
       <c r="M2">
-        <v>0.05825997655038246</v>
+        <v>35.54079947155088</v>
       </c>
       <c r="N2">
-        <v>-5.80741909248416E-13</v>
+        <v>0.0001057066698378471</v>
       </c>
       <c r="O2">
-        <v>0.02915661749147536</v>
+        <v>-6.201144309566284E-13</v>
       </c>
       <c r="P2">
-        <v>-0.02909829038249332</v>
+        <v>7.380091425415788E-14</v>
       </c>
       <c r="Q2">
-        <v>3.467736902753062E-10</v>
+        <v>-2.603402436400735E-05</v>
       </c>
       <c r="R2">
-        <v>-0.04973865767079309</v>
+        <v>1.938650319085478E-10</v>
       </c>
       <c r="S2">
-        <v>0.04970336856414861</v>
+        <v>1.54472714506275E-10</v>
       </c>
       <c r="T2">
-        <v>4.510153299517252E-14</v>
+        <v>-0.0296019886367459</v>
       </c>
       <c r="U2">
-        <v>-0.00804265425937601</v>
+        <v>-2.755513062476181E-13</v>
       </c>
       <c r="V2">
-        <v>-0.008291210119542739</v>
+        <v>6.74125610649174E-13</v>
       </c>
       <c r="W2">
-        <v>-2.531457830071392E-10</v>
+        <v>0.06570554578103245</v>
       </c>
       <c r="X2">
-        <v>0.01987263725683129</v>
+        <v>-2.222997204870831E-10</v>
       </c>
       <c r="Y2">
-        <v>0.06919119585415683</v>
+        <v>-1.011595086296906E-10</v>
       </c>
       <c r="Z2">
-        <v>-58.40720162650801</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>175.5146322687812</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>39.42740106770473</v>
       </c>
       <c r="AC2">
-        <v>121.53131083854</v>
+        <v>-101.0140143960345</v>
       </c>
       <c r="AD2">
-        <v>63.62075560806114</v>
+        <v>-4.535817206283355</v>
       </c>
       <c r="AE2">
-        <v>63.62075560808515</v>
+        <v>-140.5212224143719</v>
       </c>
       <c r="AF2">
-        <v>0.5711070883988375</v>
+        <v>0.4152062737902777</v>
       </c>
       <c r="AG2">
-        <v>1.100000023844383</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5713137067019788</v>
+        <v>0.4152062738035633</v>
       </c>
       <c r="AI2">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.02683261092834746</v>
       </c>
       <c r="AM2">
-        <v>-105.6656179757978</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>105.6598069806291</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP2">
-        <v>-138.1579831476276</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>117.9292480532439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9903,130 +9903,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>2.619406804001393</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3.667011207942133</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.529552560904281</v>
       </c>
       <c r="E3">
-        <v>0.002522731257277622</v>
+        <v>0.002166812192188307</v>
       </c>
       <c r="F3">
-        <v>0.00252273102457668</v>
+        <v>0.002166812589050659</v>
       </c>
       <c r="G3">
-        <v>0.002522731024579104</v>
+        <v>0.002166811995194994</v>
       </c>
       <c r="H3">
-        <v>30.24630446814683</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>42.34299816053531</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>29.20875703934788</v>
       </c>
       <c r="K3">
-        <v>0.02912999140964637</v>
+        <v>0.02502019204886564</v>
       </c>
       <c r="L3">
-        <v>0.02912998872264733</v>
+        <v>0.02502019663143736</v>
       </c>
       <c r="M3">
-        <v>0.02912998872267533</v>
+        <v>0.02502018977418279</v>
       </c>
       <c r="N3">
-        <v>1.106214772346862E-10</v>
+        <v>-1.684989091490127E-09</v>
       </c>
       <c r="O3">
-        <v>-3.409190523366211E-10</v>
+        <v>9.895389205585726E-11</v>
       </c>
       <c r="P3">
-        <v>-2.698769643326175E-09</v>
+        <v>9.532970540725278E-11</v>
       </c>
       <c r="Q3">
-        <v>-2.523380814049786E-13</v>
+        <v>1.301645073997308E-05</v>
       </c>
       <c r="R3">
-        <v>0.02486932904752574</v>
+        <v>-8.818582987197466E-14</v>
       </c>
       <c r="S3">
-        <v>-0.02485168525524505</v>
+        <v>-3.859767573109912E-14</v>
       </c>
       <c r="T3">
-        <v>-1.17106179546605E-10</v>
+        <v>-7.545964140056814E-10</v>
       </c>
       <c r="U3">
-        <v>-1.862540238420296E-09</v>
+        <v>-1.083650148838716E-10</v>
       </c>
       <c r="V3">
-        <v>5.012077102821398E-10</v>
+        <v>-3.093260678451923E-11</v>
       </c>
       <c r="W3">
-        <v>-1.00831023756044E-13</v>
+        <v>-0.03285277339539359</v>
       </c>
       <c r="X3">
-        <v>-0.009936319206211222</v>
+        <v>-9.647264291771344E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.03459559803368606</v>
+        <v>1.241271908774927E-13</v>
       </c>
       <c r="Z3">
-        <v>-58.40720162650801</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>175.5146322687812</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>39.42740106770473</v>
       </c>
       <c r="AC3">
-        <v>-116.379248560521</v>
+        <v>78.98598658347112</v>
       </c>
       <c r="AD3">
-        <v>-116.3792434123937</v>
+        <v>78.98598553759287</v>
       </c>
       <c r="AE3">
-        <v>-116.3792434124418</v>
+        <v>78.98598248124385</v>
       </c>
       <c r="AF3">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395296</v>
       </c>
       <c r="AG3">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429723</v>
       </c>
       <c r="AI3">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-7.597588372061134</v>
       </c>
       <c r="AM3">
-        <v>-145.3006619393671</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>124.5503549503629</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP3">
-        <v>-138.1579831476276</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>117.9292480532439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10034,130 +10034,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>2.619406804001392</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.667011207942134</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.529552560904275</v>
       </c>
       <c r="E4">
-        <v>0.002522731257276887</v>
+        <v>0.002166812192186539</v>
       </c>
       <c r="F4">
-        <v>0.002522731024577965</v>
+        <v>0.002166812589050345</v>
       </c>
       <c r="G4">
-        <v>0.00252273102457764</v>
+        <v>0.002166811995196918</v>
       </c>
       <c r="H4">
-        <v>30.24630446814682</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>42.34299816053532</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>29.20875703934781</v>
       </c>
       <c r="K4">
-        <v>0.02912999140963788</v>
+        <v>0.02502019204884524</v>
       </c>
       <c r="L4">
-        <v>0.02912998872266217</v>
+        <v>0.02502019663143374</v>
       </c>
       <c r="M4">
-        <v>0.02912998872265842</v>
+        <v>0.02502018977420502</v>
       </c>
       <c r="N4">
-        <v>1.106309448111371E-10</v>
+        <v>-1.685039147083421E-09</v>
       </c>
       <c r="O4">
-        <v>-3.409243139626289E-10</v>
+        <v>9.896031060128931E-11</v>
       </c>
       <c r="P4">
-        <v>-2.698763933669827E-09</v>
+        <v>9.531179440778896E-11</v>
       </c>
       <c r="Q4">
-        <v>-2.523380814048905E-13</v>
+        <v>1.301645073250567E-05</v>
       </c>
       <c r="R4">
-        <v>0.0248693290475377</v>
+        <v>-8.81858298720336E-14</v>
       </c>
       <c r="S4">
-        <v>-0.02485168525524578</v>
+        <v>-3.859767573120772E-14</v>
       </c>
       <c r="T4">
-        <v>-1.171056844698335E-10</v>
+        <v>-7.546167876197276E-10</v>
       </c>
       <c r="U4">
-        <v>-1.86252364826696E-09</v>
+        <v>-1.083940456393548E-10</v>
       </c>
       <c r="V4">
-        <v>5.012386686506209E-10</v>
+        <v>-3.095165225267162E-11</v>
       </c>
       <c r="W4">
-        <v>-1.008310237560511E-13</v>
+        <v>-0.0328527733953668</v>
       </c>
       <c r="X4">
-        <v>-0.00993631920621805</v>
+        <v>-9.647264291763392E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.0345955980336551</v>
+        <v>1.241271908775798E-13</v>
       </c>
       <c r="Z4">
-        <v>-58.40720162650801</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>175.5146322687812</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>39.42740106770473</v>
       </c>
       <c r="AC4">
-        <v>-116.3792485605293</v>
+        <v>78.98598658348412</v>
       </c>
       <c r="AD4">
-        <v>-116.3792434123896</v>
+        <v>78.98598553763546</v>
       </c>
       <c r="AE4">
-        <v>-116.3792434124167</v>
+        <v>78.98598248120956</v>
       </c>
       <c r="AF4">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395295</v>
       </c>
       <c r="AG4">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429722</v>
       </c>
       <c r="AI4">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-7.59758837206113</v>
       </c>
       <c r="AM4">
-        <v>-145.3006619393671</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>124.5503549503629</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-10.99131251259726</v>
       </c>
       <c r="AP4">
-        <v>-138.1579831476276</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>117.9292480532439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10309,130 +10309,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005712655780794837</v>
+        <v>0.0005984907094290179</v>
       </c>
       <c r="C2">
-        <v>0.0005712655768272692</v>
+        <v>0.0005984909448972082</v>
       </c>
       <c r="D2">
-        <v>0.0005712655768273472</v>
+        <v>0.000598490475273703</v>
       </c>
       <c r="E2">
-        <v>1.246125549246026</v>
+        <v>0.001492178248594434</v>
       </c>
       <c r="F2">
-        <v>0.001577386342135507</v>
+        <v>1.366936065296369</v>
       </c>
       <c r="G2">
-        <v>0.001577386342135575</v>
+        <v>1.183273455537173</v>
       </c>
       <c r="H2">
-        <v>0.006596406705659142</v>
+        <v>0.006910775443926672</v>
       </c>
       <c r="I2">
-        <v>0.006596406691199814</v>
+        <v>0.006910778162879134</v>
       </c>
       <c r="J2">
-        <v>0.006596406691200716</v>
+        <v>0.00691077274013399</v>
       </c>
       <c r="K2">
-        <v>14.38901842602527</v>
+        <v>0.01723019027009802</v>
       </c>
       <c r="L2">
-        <v>0.01821408858495948</v>
+        <v>15.78401810527733</v>
       </c>
       <c r="M2">
-        <v>0.01821408858496026</v>
+        <v>13.66326496158651</v>
       </c>
       <c r="N2">
-        <v>0.004035192138677903</v>
+        <v>-0.00442599483096338</v>
       </c>
       <c r="O2">
-        <v>0.003210228117279302</v>
+        <v>-0.001435907761970144</v>
       </c>
       <c r="P2">
-        <v>-0.007242707788580234</v>
+        <v>0.005864877941901128</v>
       </c>
       <c r="Q2">
-        <v>-7.750596745669152</v>
+        <v>-0.00279323535610212</v>
       </c>
       <c r="R2">
-        <v>-0.01814228480937915</v>
+        <v>-9.337081679777295</v>
       </c>
       <c r="S2">
-        <v>0.01502093622082109</v>
+        <v>-6.99403501370188</v>
       </c>
       <c r="T2">
-        <v>0.00446962500857637</v>
+        <v>-0.005740201063496955</v>
       </c>
       <c r="U2">
-        <v>-0.006103716549162426</v>
+        <v>0.006185520399132775</v>
       </c>
       <c r="V2">
-        <v>0.0008738767093595997</v>
+        <v>-0.001279719136562952</v>
       </c>
       <c r="W2">
-        <v>-7.767249883374745</v>
+        <v>0.019902485453084</v>
       </c>
       <c r="X2">
-        <v>0.006009797420381993</v>
+        <v>-9.355908514044778</v>
       </c>
       <c r="Y2">
-        <v>0.01623057510759732</v>
+        <v>-6.990110759492147</v>
       </c>
       <c r="Z2">
-        <v>-49.15705482648663</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-169.6110161338007</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>64.84444377535816</v>
       </c>
       <c r="AC2">
-        <v>130.7814576385614</v>
+        <v>-102.2979589376356</v>
       </c>
       <c r="AD2">
-        <v>72.87090240808475</v>
+        <v>10.33127786164016</v>
       </c>
       <c r="AE2">
-        <v>72.87090240811474</v>
+        <v>-115.1394777880647</v>
       </c>
       <c r="AF2">
-        <v>0.9282437459573998</v>
+        <v>1.027154900637619</v>
       </c>
       <c r="AG2">
-        <v>1.100000023844591</v>
+        <v>0.8723446855816874</v>
       </c>
       <c r="AH2">
-        <v>1.036054827732469</v>
+        <v>0.9370212414505737</v>
       </c>
       <c r="AI2">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="AJ2">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="AK2">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="AL2">
-        <v>-8.351765333507215</v>
+        <v>-2.047021704634401</v>
       </c>
       <c r="AM2">
-        <v>-118.5339422527549</v>
+        <v>-131.3437653417182</v>
       </c>
       <c r="AN2">
-        <v>116.8442630436326</v>
+        <v>113.278029361874</v>
       </c>
       <c r="AO2">
-        <v>-4.157054826293857</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP2">
-        <v>-125.4570209785861</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ2">
-        <v>120.0875191122162</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10440,130 +10440,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1.065893177055904</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.249318774902169</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.040654529964374</v>
       </c>
       <c r="E3">
-        <v>0.0007886932559330323</v>
+        <v>0.0007460891357577192</v>
       </c>
       <c r="F3">
-        <v>0.0007886931831825995</v>
+        <v>0.0007460892454299551</v>
       </c>
       <c r="G3">
-        <v>0.0007886931831825469</v>
+        <v>0.0007460890949058396</v>
       </c>
       <c r="H3">
-        <v>12.30787425401223</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.42589061986842</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.01644346016669</v>
       </c>
       <c r="K3">
-        <v>0.009107045272419572</v>
+        <v>0.00861509526738349</v>
       </c>
       <c r="L3">
-        <v>0.009107044432369933</v>
+        <v>0.008615096533769387</v>
       </c>
       <c r="M3">
-        <v>0.009107044432369326</v>
+        <v>0.008615094795666614</v>
       </c>
       <c r="N3">
-        <v>-5.680641324400423</v>
+        <v>-6.586735270825859E-10</v>
       </c>
       <c r="O3">
-        <v>4.063478036423839E-11</v>
+        <v>-7.803987006572378</v>
       </c>
       <c r="P3">
-        <v>-8.896295024916333E-10</v>
+        <v>-5.414809253074123</v>
       </c>
       <c r="Q3">
-        <v>-0.001558950368077746</v>
+        <v>0.001396617529381353</v>
       </c>
       <c r="R3">
-        <v>0.009071142492657122</v>
+        <v>-0.006674306581498407</v>
       </c>
       <c r="S3">
-        <v>-0.007510468364506764</v>
+        <v>0.005279230701087215</v>
       </c>
       <c r="T3">
-        <v>-5.680641325560946</v>
+        <v>-4.166842292129405E-10</v>
       </c>
       <c r="U3">
-        <v>-7.636019616226532E-10</v>
+        <v>-7.803987007578964</v>
       </c>
       <c r="V3">
-        <v>2.265257881866991E-10</v>
+        <v>-5.414809254707131</v>
       </c>
       <c r="W3">
-        <v>0.006767617879231799</v>
+        <v>-0.009951242903276798</v>
       </c>
       <c r="X3">
-        <v>-0.003004898911426705</v>
+        <v>0.002739109991126616</v>
       </c>
       <c r="Y3">
-        <v>-0.008115287550062042</v>
+        <v>0.003317102838576357</v>
       </c>
       <c r="Z3">
-        <v>-49.15705482648663</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-169.6110161338007</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>64.84444377535816</v>
       </c>
       <c r="AC3">
-        <v>-107.1291017604921</v>
+        <v>77.70204204186493</v>
       </c>
       <c r="AD3">
-        <v>-107.1290966123905</v>
+        <v>77.70204359773528</v>
       </c>
       <c r="AE3">
-        <v>-107.1290966124033</v>
+        <v>77.70203533783985</v>
       </c>
       <c r="AF3">
-        <v>0.9049780685278245</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="AG3">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="AH3">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="AI3">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="AJ3">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="AK3">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="AL3">
-        <v>-1.174854820720038</v>
+        <v>-4.775555041063019</v>
       </c>
       <c r="AM3">
-        <v>-130.1685625970616</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN3">
-        <v>122.5002041917308</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO3">
-        <v>-4.157054826293857</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP3">
-        <v>-125.4570209785861</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ3">
-        <v>120.0875191122162</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10571,130 +10571,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1.065893177055904</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.24931877490217</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.040654529964372</v>
       </c>
       <c r="E4">
-        <v>0.0007886932559327906</v>
+        <v>0.0007460891357574314</v>
       </c>
       <c r="F4">
-        <v>0.0007886931831829916</v>
+        <v>0.000746089245428804</v>
       </c>
       <c r="G4">
-        <v>0.0007886931831824865</v>
+        <v>0.0007460890949075302</v>
       </c>
       <c r="H4">
-        <v>12.30787425401223</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.42589061986843</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.01644346016667</v>
       </c>
       <c r="K4">
-        <v>0.009107045272416781</v>
+        <v>0.008615095267380166</v>
       </c>
       <c r="L4">
-        <v>0.009107044432374461</v>
+        <v>0.008615096533756096</v>
       </c>
       <c r="M4">
-        <v>0.009107044432368627</v>
+        <v>0.008615094795686137</v>
       </c>
       <c r="N4">
-        <v>-5.680641324400419</v>
+        <v>-6.586691336799594E-10</v>
       </c>
       <c r="O4">
-        <v>4.063311990934542E-11</v>
+        <v>-7.80398700657238</v>
       </c>
       <c r="P4">
-        <v>-8.896365124786526E-10</v>
+        <v>-5.414809253074108</v>
       </c>
       <c r="Q4">
-        <v>-0.00155895036807054</v>
+        <v>0.00139661752937605</v>
       </c>
       <c r="R4">
-        <v>0.009071142492661173</v>
+        <v>-0.006674306581482865</v>
       </c>
       <c r="S4">
-        <v>-0.007510468364508206</v>
+        <v>0.005279230701098949</v>
       </c>
       <c r="T4">
-        <v>-5.680641325560948</v>
+        <v>-4.166845962496937E-10</v>
       </c>
       <c r="U4">
-        <v>-7.636009754720626E-10</v>
+        <v>-7.803987007578966</v>
       </c>
       <c r="V4">
-        <v>2.265140914543404E-10</v>
+        <v>-5.41480925470713</v>
       </c>
       <c r="W4">
-        <v>0.006767617879231275</v>
+        <v>-0.009951242903273629</v>
       </c>
       <c r="X4">
-        <v>-0.003004898911429588</v>
+        <v>0.002739109991135168</v>
       </c>
       <c r="Y4">
-        <v>-0.008115287550059552</v>
+        <v>0.003317102838584237</v>
       </c>
       <c r="Z4">
-        <v>-49.15705482648663</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-169.6110161338007</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>64.84444377535816</v>
       </c>
       <c r="AC4">
-        <v>-107.1291017604352</v>
+        <v>77.70204204189234</v>
       </c>
       <c r="AD4">
-        <v>-107.1290966123817</v>
+        <v>77.70204359784499</v>
       </c>
       <c r="AE4">
-        <v>-107.1290966123891</v>
+        <v>77.70203533783589</v>
       </c>
       <c r="AF4">
-        <v>0.9049780685278244</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="AG4">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="AH4">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="AI4">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="AJ4">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="AK4">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="AL4">
-        <v>-1.174854820720031</v>
+        <v>-4.775555041063012</v>
       </c>
       <c r="AM4">
-        <v>-130.1685625970616</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN4">
-        <v>122.5002041917308</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO4">
-        <v>-4.157054826293857</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP4">
-        <v>-125.4570209785861</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ4">
-        <v>120.0875191122162</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
   </sheetData>
@@ -10846,130 +10846,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005712655780794837</v>
+        <v>0.0005984907094290179</v>
       </c>
       <c r="C2">
-        <v>0.0005712655768272692</v>
+        <v>0.0005984909448972082</v>
       </c>
       <c r="D2">
-        <v>0.0005712655768273472</v>
+        <v>0.000598490475273703</v>
       </c>
       <c r="E2">
-        <v>1.246125549246026</v>
+        <v>0.001492178248594434</v>
       </c>
       <c r="F2">
-        <v>0.001577386342135507</v>
+        <v>1.366936065296369</v>
       </c>
       <c r="G2">
-        <v>0.001577386342135575</v>
+        <v>1.183273455537173</v>
       </c>
       <c r="H2">
-        <v>0.006596406705659142</v>
+        <v>0.006910775443926672</v>
       </c>
       <c r="I2">
-        <v>0.006596406691199814</v>
+        <v>0.006910778162879134</v>
       </c>
       <c r="J2">
-        <v>0.006596406691200716</v>
+        <v>0.00691077274013399</v>
       </c>
       <c r="K2">
-        <v>14.38901842602527</v>
+        <v>0.01723019027009802</v>
       </c>
       <c r="L2">
-        <v>0.01821408858495948</v>
+        <v>15.78401810527733</v>
       </c>
       <c r="M2">
-        <v>0.01821408858496026</v>
+        <v>13.66326496158651</v>
       </c>
       <c r="N2">
-        <v>0.004035192138677903</v>
+        <v>-0.00442599483096338</v>
       </c>
       <c r="O2">
-        <v>0.003210228117279302</v>
+        <v>-0.001435907761970144</v>
       </c>
       <c r="P2">
-        <v>-0.007242707788580234</v>
+        <v>0.005864877941901128</v>
       </c>
       <c r="Q2">
-        <v>-7.750596745669152</v>
+        <v>-0.00279323535610212</v>
       </c>
       <c r="R2">
-        <v>-0.01814228480937915</v>
+        <v>-9.337081679777295</v>
       </c>
       <c r="S2">
-        <v>0.01502093622082109</v>
+        <v>-6.99403501370188</v>
       </c>
       <c r="T2">
-        <v>0.00446962500857637</v>
+        <v>-0.005740201063496955</v>
       </c>
       <c r="U2">
-        <v>-0.006103716549162426</v>
+        <v>0.006185520399132775</v>
       </c>
       <c r="V2">
-        <v>0.0008738767093595997</v>
+        <v>-0.001279719136562952</v>
       </c>
       <c r="W2">
-        <v>-7.767249883374745</v>
+        <v>0.019902485453084</v>
       </c>
       <c r="X2">
-        <v>0.006009797420381993</v>
+        <v>-9.355908514044778</v>
       </c>
       <c r="Y2">
-        <v>0.01623057510759732</v>
+        <v>-6.990110759492147</v>
       </c>
       <c r="Z2">
-        <v>-49.15705482648663</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-169.6110161338007</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>64.84444377535816</v>
       </c>
       <c r="AC2">
-        <v>130.7814576385614</v>
+        <v>-102.2979589376356</v>
       </c>
       <c r="AD2">
-        <v>72.87090240808475</v>
+        <v>10.33127786164016</v>
       </c>
       <c r="AE2">
-        <v>72.87090240811474</v>
+        <v>-115.1394777880647</v>
       </c>
       <c r="AF2">
-        <v>0.9282437459573998</v>
+        <v>1.027154900637619</v>
       </c>
       <c r="AG2">
-        <v>1.100000023844591</v>
+        <v>0.8723446855816874</v>
       </c>
       <c r="AH2">
-        <v>1.036054827732469</v>
+        <v>0.9370212414505737</v>
       </c>
       <c r="AI2">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="AJ2">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="AK2">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="AL2">
-        <v>-8.351765333507215</v>
+        <v>-2.047021704634401</v>
       </c>
       <c r="AM2">
-        <v>-118.5339422527549</v>
+        <v>-131.3437653417182</v>
       </c>
       <c r="AN2">
-        <v>116.8442630436326</v>
+        <v>113.278029361874</v>
       </c>
       <c r="AO2">
-        <v>-4.157054826293857</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP2">
-        <v>-125.4570209785861</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ2">
-        <v>120.0875191122162</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10977,130 +10977,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1.065893177055904</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.249318774902169</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.040654529964374</v>
       </c>
       <c r="E3">
-        <v>0.0007886932559330323</v>
+        <v>0.0007460891357577192</v>
       </c>
       <c r="F3">
-        <v>0.0007886931831825995</v>
+        <v>0.0007460892454299551</v>
       </c>
       <c r="G3">
-        <v>0.0007886931831825469</v>
+        <v>0.0007460890949058396</v>
       </c>
       <c r="H3">
-        <v>12.30787425401223</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.42589061986842</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.01644346016669</v>
       </c>
       <c r="K3">
-        <v>0.009107045272419572</v>
+        <v>0.00861509526738349</v>
       </c>
       <c r="L3">
-        <v>0.009107044432369933</v>
+        <v>0.008615096533769387</v>
       </c>
       <c r="M3">
-        <v>0.009107044432369326</v>
+        <v>0.008615094795666614</v>
       </c>
       <c r="N3">
-        <v>-5.680641324400423</v>
+        <v>-6.586735270825859E-10</v>
       </c>
       <c r="O3">
-        <v>4.063478036423839E-11</v>
+        <v>-7.803987006572378</v>
       </c>
       <c r="P3">
-        <v>-8.896295024916333E-10</v>
+        <v>-5.414809253074123</v>
       </c>
       <c r="Q3">
-        <v>-0.001558950368077746</v>
+        <v>0.001396617529381353</v>
       </c>
       <c r="R3">
-        <v>0.009071142492657122</v>
+        <v>-0.006674306581498407</v>
       </c>
       <c r="S3">
-        <v>-0.007510468364506764</v>
+        <v>0.005279230701087215</v>
       </c>
       <c r="T3">
-        <v>-5.680641325560946</v>
+        <v>-4.166842292129405E-10</v>
       </c>
       <c r="U3">
-        <v>-7.636019616226532E-10</v>
+        <v>-7.803987007578964</v>
       </c>
       <c r="V3">
-        <v>2.265257881866991E-10</v>
+        <v>-5.414809254707131</v>
       </c>
       <c r="W3">
-        <v>0.006767617879231799</v>
+        <v>-0.009951242903276798</v>
       </c>
       <c r="X3">
-        <v>-0.003004898911426705</v>
+        <v>0.002739109991126616</v>
       </c>
       <c r="Y3">
-        <v>-0.008115287550062042</v>
+        <v>0.003317102838576357</v>
       </c>
       <c r="Z3">
-        <v>-49.15705482648663</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-169.6110161338007</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>64.84444377535816</v>
       </c>
       <c r="AC3">
-        <v>-107.1291017604921</v>
+        <v>77.70204204186493</v>
       </c>
       <c r="AD3">
-        <v>-107.1290966123905</v>
+        <v>77.70204359773528</v>
       </c>
       <c r="AE3">
-        <v>-107.1290966124033</v>
+        <v>77.70203533783985</v>
       </c>
       <c r="AF3">
-        <v>0.9049780685278245</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="AG3">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="AH3">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="AI3">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="AJ3">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="AK3">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="AL3">
-        <v>-1.174854820720038</v>
+        <v>-4.775555041063019</v>
       </c>
       <c r="AM3">
-        <v>-130.1685625970616</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN3">
-        <v>122.5002041917308</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO3">
-        <v>-4.157054826293857</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP3">
-        <v>-125.4570209785861</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ3">
-        <v>120.0875191122162</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11108,130 +11108,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1.065893177055904</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.24931877490217</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.040654529964372</v>
       </c>
       <c r="E4">
-        <v>0.0007886932559327906</v>
+        <v>0.0007460891357574314</v>
       </c>
       <c r="F4">
-        <v>0.0007886931831829916</v>
+        <v>0.000746089245428804</v>
       </c>
       <c r="G4">
-        <v>0.0007886931831824865</v>
+        <v>0.0007460890949075302</v>
       </c>
       <c r="H4">
-        <v>12.30787425401223</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.42589061986843</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.01644346016667</v>
       </c>
       <c r="K4">
-        <v>0.009107045272416781</v>
+        <v>0.008615095267380166</v>
       </c>
       <c r="L4">
-        <v>0.009107044432374461</v>
+        <v>0.008615096533756096</v>
       </c>
       <c r="M4">
-        <v>0.009107044432368627</v>
+        <v>0.008615094795686137</v>
       </c>
       <c r="N4">
-        <v>-5.680641324400419</v>
+        <v>-6.586691336799594E-10</v>
       </c>
       <c r="O4">
-        <v>4.063311990934542E-11</v>
+        <v>-7.80398700657238</v>
       </c>
       <c r="P4">
-        <v>-8.896365124786526E-10</v>
+        <v>-5.414809253074108</v>
       </c>
       <c r="Q4">
-        <v>-0.00155895036807054</v>
+        <v>0.00139661752937605</v>
       </c>
       <c r="R4">
-        <v>0.009071142492661173</v>
+        <v>-0.006674306581482865</v>
       </c>
       <c r="S4">
-        <v>-0.007510468364508206</v>
+        <v>0.005279230701098949</v>
       </c>
       <c r="T4">
-        <v>-5.680641325560948</v>
+        <v>-4.166845962496937E-10</v>
       </c>
       <c r="U4">
-        <v>-7.636009754720626E-10</v>
+        <v>-7.803987007578966</v>
       </c>
       <c r="V4">
-        <v>2.265140914543404E-10</v>
+        <v>-5.41480925470713</v>
       </c>
       <c r="W4">
-        <v>0.006767617879231275</v>
+        <v>-0.009951242903273629</v>
       </c>
       <c r="X4">
-        <v>-0.003004898911429588</v>
+        <v>0.002739109991135168</v>
       </c>
       <c r="Y4">
-        <v>-0.008115287550059552</v>
+        <v>0.003317102838584237</v>
       </c>
       <c r="Z4">
-        <v>-49.15705482648663</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-169.6110161338007</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>64.84444377535816</v>
       </c>
       <c r="AC4">
-        <v>-107.1291017604352</v>
+        <v>77.70204204189234</v>
       </c>
       <c r="AD4">
-        <v>-107.1290966123817</v>
+        <v>77.70204359784499</v>
       </c>
       <c r="AE4">
-        <v>-107.1290966123891</v>
+        <v>77.70203533783589</v>
       </c>
       <c r="AF4">
-        <v>0.9049780685278244</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="AG4">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="AH4">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="AI4">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="AJ4">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="AK4">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="AL4">
-        <v>-1.174854820720031</v>
+        <v>-4.775555041063012</v>
       </c>
       <c r="AM4">
-        <v>-130.1685625970616</v>
+        <v>-120.4649322159348</v>
       </c>
       <c r="AN4">
-        <v>122.5002041917308</v>
+        <v>106.8663009952652</v>
       </c>
       <c r="AO4">
-        <v>-4.157054826293857</v>
+        <v>-4.308903017906394</v>
       </c>
       <c r="AP4">
-        <v>-125.4570209785861</v>
+        <v>-124.6110161336328</v>
       </c>
       <c r="AQ4">
-        <v>120.0875191122162</v>
+        <v>109.8444437755527</v>
       </c>
     </row>
   </sheetData>
@@ -11383,130 +11383,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002466894490126003</v>
+        <v>0.003294274620604923</v>
       </c>
       <c r="C2">
-        <v>0.002466894479327424</v>
+        <v>0.003294275452783691</v>
       </c>
       <c r="D2">
-        <v>0.002466894479327032</v>
+        <v>0.003294273802847429</v>
       </c>
       <c r="E2">
-        <v>2.749537948862151</v>
+        <v>0.004325701170287405</v>
       </c>
       <c r="F2">
-        <v>0.00594027103357038</v>
+        <v>3.869926009058734</v>
       </c>
       <c r="G2">
-        <v>0.005940271033567888</v>
+        <v>2.547201952113443</v>
       </c>
       <c r="H2">
-        <v>0.02848524395873306</v>
+        <v>0.03803900677981609</v>
       </c>
       <c r="I2">
-        <v>0.02848524383404179</v>
+        <v>0.03803901638898881</v>
       </c>
       <c r="J2">
-        <v>0.02848524383403728</v>
+        <v>0.0380389973371659</v>
       </c>
       <c r="K2">
-        <v>31.74892949845309</v>
+        <v>0.04994889470198625</v>
       </c>
       <c r="L2">
-        <v>0.06859234160582392</v>
+        <v>44.68605646147989</v>
       </c>
       <c r="M2">
-        <v>0.06859234160579514</v>
+        <v>29.41255465466073</v>
       </c>
       <c r="N2">
-        <v>9.613456662027429E-14</v>
+        <v>0.0001733282132004562</v>
       </c>
       <c r="O2">
-        <v>0.02471661008520884</v>
+        <v>2.477313514077414E-15</v>
       </c>
       <c r="P2">
-        <v>-0.02461941354507956</v>
+        <v>3.659073004069259E-13</v>
       </c>
       <c r="Q2">
-        <v>-7.060740116963439E-11</v>
+        <v>-4.980087862266336E-05</v>
       </c>
       <c r="R2">
-        <v>-0.05454870176142135</v>
+        <v>-1.882896542898314E-10</v>
       </c>
       <c r="S2">
-        <v>0.05445478642940507</v>
+        <v>-4.391557152346032E-11</v>
       </c>
       <c r="T2">
-        <v>1.90159905161824E-13</v>
+        <v>-0.02528040916583542</v>
       </c>
       <c r="U2">
-        <v>-0.006873648110924898</v>
+        <v>4.217267036846456E-13</v>
       </c>
       <c r="V2">
-        <v>-0.007302741617022661</v>
+        <v>-2.135369311358013E-13</v>
       </c>
       <c r="W2">
-        <v>-1.742780796843794E-11</v>
+        <v>0.06546553371627593</v>
       </c>
       <c r="X2">
-        <v>0.03810085767431817</v>
+        <v>-1.763438236933336E-10</v>
       </c>
       <c r="Y2">
-        <v>0.08535514365093951</v>
+        <v>-1.642875976647083E-10</v>
       </c>
       <c r="Z2">
-        <v>-41.74430571758281</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-170.5649954175247</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>37.0387201988786</v>
       </c>
       <c r="AC2">
-        <v>138.13817399709</v>
+        <v>-98.35565987595234</v>
       </c>
       <c r="AD2">
-        <v>66.56270439813233</v>
+        <v>9.374023468544289</v>
       </c>
       <c r="AE2">
-        <v>66.56270439813807</v>
+        <v>-142.8929530514158</v>
       </c>
       <c r="AF2">
-        <v>0.5199773961133466</v>
+        <v>0.3837112302340936</v>
       </c>
       <c r="AG2">
-        <v>1.000000000006553</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5204858233912609</v>
+        <v>0.3837112302244141</v>
       </c>
       <c r="AI2">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="AJ2">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.07043074203077801</v>
       </c>
       <c r="AM2">
-        <v>-106.0394703642315</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>106.023380610698</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP2">
-        <v>-148.3705990935352</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>124.0256852899936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11514,130 +11514,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1.608053223016119</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.764903772674741</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.101035304050801</v>
       </c>
       <c r="E3">
-        <v>0.00297013573748294</v>
+        <v>0.002162850608057347</v>
       </c>
       <c r="F3">
-        <v>0.002970135548251237</v>
+        <v>0.002162850949037328</v>
       </c>
       <c r="G3">
-        <v>0.002970135548249332</v>
+        <v>0.002162850404877146</v>
       </c>
       <c r="H3">
-        <v>18.56819922359204</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31.92635874874348</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>24.26066596741275</v>
       </c>
       <c r="K3">
-        <v>0.03429617335131006</v>
+        <v>0.0249744476155771</v>
       </c>
       <c r="L3">
-        <v>0.03429617116625056</v>
+        <v>0.02497445155287478</v>
       </c>
       <c r="M3">
-        <v>0.03429617116622857</v>
+        <v>0.02497444526945423</v>
       </c>
       <c r="N3">
-        <v>-1.91340828817049E-11</v>
+        <v>-1.800674882003811E-09</v>
       </c>
       <c r="O3">
-        <v>-1.183257607129763E-09</v>
+        <v>-1.532652106069347E-10</v>
       </c>
       <c r="P3">
-        <v>-2.961833907658933E-09</v>
+        <v>-3.204177818406973E-11</v>
       </c>
       <c r="Q3">
-        <v>6.24521005533472E-15</v>
+        <v>2.489966759862579E-05</v>
       </c>
       <c r="R3">
-        <v>0.0272743507203821</v>
+        <v>-1.259213372975726E-13</v>
       </c>
       <c r="S3">
-        <v>-0.02722739450965102</v>
+        <v>1.244195916064494E-13</v>
       </c>
       <c r="T3">
-        <v>-6.935437869495005E-13</v>
+        <v>-4.46074573130167E-10</v>
       </c>
       <c r="U3">
-        <v>-2.073052579658029E-09</v>
+        <v>-1.176633455028686E-10</v>
       </c>
       <c r="V3">
-        <v>1.046161213127537E-09</v>
+        <v>-1.433577083846394E-10</v>
       </c>
       <c r="W3">
-        <v>7.83127096743689E-14</v>
+        <v>-0.03273276720550228</v>
       </c>
       <c r="X3">
-        <v>-0.01905042968220845</v>
+        <v>7.022148065687304E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.04267757163546457</v>
+        <v>7.32797632316361E-14</v>
       </c>
       <c r="Z3">
-        <v>-41.74430571758281</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-170.5649954175247</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>37.0387201988786</v>
       </c>
       <c r="AC3">
-        <v>-113.43729716832</v>
+        <v>81.64434147531615</v>
       </c>
       <c r="AD3">
-        <v>-113.4372942506218</v>
+        <v>81.64434107506575</v>
       </c>
       <c r="AE3">
-        <v>-113.4372942505967</v>
+        <v>81.64433895785058</v>
       </c>
       <c r="AF3">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992607</v>
       </c>
       <c r="AG3">
-        <v>1.000000000000131</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997251</v>
       </c>
       <c r="AI3">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="AJ3">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-5.141094698820867</v>
       </c>
       <c r="AM3">
-        <v>-149.4085172538034</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>130.8537654848539</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP3">
-        <v>-148.3705990935352</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>124.0256852899936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11645,130 +11645,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1.608053223016118</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.764903772674741</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.101035304050801</v>
       </c>
       <c r="E4">
-        <v>0.002970135737483693</v>
+        <v>0.002162850608055723</v>
       </c>
       <c r="F4">
-        <v>0.002970135548250615</v>
+        <v>0.002162850949037328</v>
       </c>
       <c r="G4">
-        <v>0.002970135548249251</v>
+        <v>0.00216285040487871</v>
       </c>
       <c r="H4">
-        <v>18.56819922359202</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>31.92635874874348</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>24.26066596741275</v>
       </c>
       <c r="K4">
-        <v>0.03429617335131875</v>
+        <v>0.02497444761555835</v>
       </c>
       <c r="L4">
-        <v>0.03429617116624339</v>
+        <v>0.02497445155287478</v>
       </c>
       <c r="M4">
-        <v>0.03429617116622764</v>
+        <v>0.02497444526947228</v>
       </c>
       <c r="N4">
-        <v>-1.913352403839994E-11</v>
+        <v>-1.800673408189503E-09</v>
       </c>
       <c r="O4">
-        <v>-1.183241384860761E-09</v>
+        <v>-1.532737527183769E-10</v>
       </c>
       <c r="P4">
-        <v>-2.961823049768124E-09</v>
+        <v>-3.205274151471056E-11</v>
       </c>
       <c r="Q4">
-        <v>6.245210055344906E-15</v>
+        <v>2.489966760221551E-05</v>
       </c>
       <c r="R4">
-        <v>0.02727435072037382</v>
+        <v>-1.259213372975726E-13</v>
       </c>
       <c r="S4">
-        <v>-0.02722739450965298</v>
+        <v>1.244195916065612E-13</v>
       </c>
       <c r="T4">
-        <v>-6.944832291798275E-13</v>
+        <v>-4.46094077581308E-10</v>
       </c>
       <c r="U4">
-        <v>-2.073057245139365E-09</v>
+        <v>-1.176560881053774E-10</v>
       </c>
       <c r="V4">
-        <v>1.04617060320224E-09</v>
+        <v>-1.433659806502011E-10</v>
       </c>
       <c r="W4">
-        <v>7.831270967438806E-14</v>
+        <v>-0.03273276720547771</v>
       </c>
       <c r="X4">
-        <v>-0.01905042968220815</v>
+        <v>7.022148065687304E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.04267757163546167</v>
+        <v>7.327976323165202E-14</v>
       </c>
       <c r="Z4">
-        <v>-41.74430571758281</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-170.5649954175247</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>37.0387201988786</v>
       </c>
       <c r="AC4">
-        <v>-113.4372971683137</v>
+        <v>81.64434147530983</v>
       </c>
       <c r="AD4">
-        <v>-113.437294250614</v>
+        <v>81.64434107506575</v>
       </c>
       <c r="AE4">
-        <v>-113.4372942505931</v>
+        <v>81.64433895786765</v>
       </c>
       <c r="AF4">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992609</v>
       </c>
       <c r="AG4">
-        <v>1.000000000000132</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997249</v>
       </c>
       <c r="AI4">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="AJ4">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-5.141094698820842</v>
       </c>
       <c r="AM4">
-        <v>-149.4085172538034</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>130.8537654848539</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP4">
-        <v>-148.3705990935352</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>124.0256852899936</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12145,130 +12145,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002466894490126003</v>
+        <v>0.003294274620604923</v>
       </c>
       <c r="C2">
-        <v>0.002466894479327424</v>
+        <v>0.003294275452783691</v>
       </c>
       <c r="D2">
-        <v>0.002466894479327032</v>
+        <v>0.003294273802847429</v>
       </c>
       <c r="E2">
-        <v>2.749537948862151</v>
+        <v>0.004325701170287405</v>
       </c>
       <c r="F2">
-        <v>0.00594027103357038</v>
+        <v>3.869926009058734</v>
       </c>
       <c r="G2">
-        <v>0.005940271033567888</v>
+        <v>2.547201952113443</v>
       </c>
       <c r="H2">
-        <v>0.02848524395873306</v>
+        <v>0.03803900677981609</v>
       </c>
       <c r="I2">
-        <v>0.02848524383404179</v>
+        <v>0.03803901638898881</v>
       </c>
       <c r="J2">
-        <v>0.02848524383403728</v>
+        <v>0.0380389973371659</v>
       </c>
       <c r="K2">
-        <v>31.74892949845309</v>
+        <v>0.04994889470198625</v>
       </c>
       <c r="L2">
-        <v>0.06859234160582392</v>
+        <v>44.68605646147989</v>
       </c>
       <c r="M2">
-        <v>0.06859234160579514</v>
+        <v>29.41255465466073</v>
       </c>
       <c r="N2">
-        <v>9.613456662027429E-14</v>
+        <v>0.0001733282132004562</v>
       </c>
       <c r="O2">
-        <v>0.02471661008520884</v>
+        <v>2.477313514077414E-15</v>
       </c>
       <c r="P2">
-        <v>-0.02461941354507956</v>
+        <v>3.659073004069259E-13</v>
       </c>
       <c r="Q2">
-        <v>-7.060740116963439E-11</v>
+        <v>-4.980087862266336E-05</v>
       </c>
       <c r="R2">
-        <v>-0.05454870176142135</v>
+        <v>-1.882896542898314E-10</v>
       </c>
       <c r="S2">
-        <v>0.05445478642940507</v>
+        <v>-4.391557152346032E-11</v>
       </c>
       <c r="T2">
-        <v>1.90159905161824E-13</v>
+        <v>-0.02528040916583542</v>
       </c>
       <c r="U2">
-        <v>-0.006873648110924898</v>
+        <v>4.217267036846456E-13</v>
       </c>
       <c r="V2">
-        <v>-0.007302741617022661</v>
+        <v>-2.135369311358013E-13</v>
       </c>
       <c r="W2">
-        <v>-1.742780796843794E-11</v>
+        <v>0.06546553371627593</v>
       </c>
       <c r="X2">
-        <v>0.03810085767431817</v>
+        <v>-1.763438236933336E-10</v>
       </c>
       <c r="Y2">
-        <v>0.08535514365093951</v>
+        <v>-1.642875976647083E-10</v>
       </c>
       <c r="Z2">
-        <v>-41.74430571758281</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-170.5649954175247</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>37.0387201988786</v>
       </c>
       <c r="AC2">
-        <v>138.13817399709</v>
+        <v>-98.35565987595234</v>
       </c>
       <c r="AD2">
-        <v>66.56270439813233</v>
+        <v>9.374023468544289</v>
       </c>
       <c r="AE2">
-        <v>66.56270439813807</v>
+        <v>-142.8929530514158</v>
       </c>
       <c r="AF2">
-        <v>0.5199773961133466</v>
+        <v>0.3837112302340936</v>
       </c>
       <c r="AG2">
-        <v>1.000000000006553</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5204858233912609</v>
+        <v>0.3837112302244141</v>
       </c>
       <c r="AI2">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="AJ2">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.07043074203077801</v>
       </c>
       <c r="AM2">
-        <v>-106.0394703642315</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>106.023380610698</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP2">
-        <v>-148.3705990935352</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>124.0256852899936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12276,130 +12276,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1.608053223016119</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.764903772674741</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.101035304050801</v>
       </c>
       <c r="E3">
-        <v>0.00297013573748294</v>
+        <v>0.002162850608057347</v>
       </c>
       <c r="F3">
-        <v>0.002970135548251237</v>
+        <v>0.002162850949037328</v>
       </c>
       <c r="G3">
-        <v>0.002970135548249332</v>
+        <v>0.002162850404877146</v>
       </c>
       <c r="H3">
-        <v>18.56819922359204</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31.92635874874348</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>24.26066596741275</v>
       </c>
       <c r="K3">
-        <v>0.03429617335131006</v>
+        <v>0.0249744476155771</v>
       </c>
       <c r="L3">
-        <v>0.03429617116625056</v>
+        <v>0.02497445155287478</v>
       </c>
       <c r="M3">
-        <v>0.03429617116622857</v>
+        <v>0.02497444526945423</v>
       </c>
       <c r="N3">
-        <v>-1.91340828817049E-11</v>
+        <v>-1.800674882003811E-09</v>
       </c>
       <c r="O3">
-        <v>-1.183257607129763E-09</v>
+        <v>-1.532652106069347E-10</v>
       </c>
       <c r="P3">
-        <v>-2.961833907658933E-09</v>
+        <v>-3.204177818406973E-11</v>
       </c>
       <c r="Q3">
-        <v>6.24521005533472E-15</v>
+        <v>2.489966759862579E-05</v>
       </c>
       <c r="R3">
-        <v>0.0272743507203821</v>
+        <v>-1.259213372975726E-13</v>
       </c>
       <c r="S3">
-        <v>-0.02722739450965102</v>
+        <v>1.244195916064494E-13</v>
       </c>
       <c r="T3">
-        <v>-6.935437869495005E-13</v>
+        <v>-4.46074573130167E-10</v>
       </c>
       <c r="U3">
-        <v>-2.073052579658029E-09</v>
+        <v>-1.176633455028686E-10</v>
       </c>
       <c r="V3">
-        <v>1.046161213127537E-09</v>
+        <v>-1.433577083846394E-10</v>
       </c>
       <c r="W3">
-        <v>7.83127096743689E-14</v>
+        <v>-0.03273276720550228</v>
       </c>
       <c r="X3">
-        <v>-0.01905042968220845</v>
+        <v>7.022148065687304E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.04267757163546457</v>
+        <v>7.32797632316361E-14</v>
       </c>
       <c r="Z3">
-        <v>-41.74430571758281</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-170.5649954175247</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>37.0387201988786</v>
       </c>
       <c r="AC3">
-        <v>-113.43729716832</v>
+        <v>81.64434147531615</v>
       </c>
       <c r="AD3">
-        <v>-113.4372942506218</v>
+        <v>81.64434107506575</v>
       </c>
       <c r="AE3">
-        <v>-113.4372942505967</v>
+        <v>81.64433895785058</v>
       </c>
       <c r="AF3">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992607</v>
       </c>
       <c r="AG3">
-        <v>1.000000000000131</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997251</v>
       </c>
       <c r="AI3">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="AJ3">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-5.141094698820867</v>
       </c>
       <c r="AM3">
-        <v>-149.4085172538034</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>130.8537654848539</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP3">
-        <v>-148.3705990935352</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>124.0256852899936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12407,130 +12407,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>1.608053223016118</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.764903772674741</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.101035304050801</v>
       </c>
       <c r="E4">
-        <v>0.002970135737483693</v>
+        <v>0.002162850608055723</v>
       </c>
       <c r="F4">
-        <v>0.002970135548250615</v>
+        <v>0.002162850949037328</v>
       </c>
       <c r="G4">
-        <v>0.002970135548249251</v>
+        <v>0.00216285040487871</v>
       </c>
       <c r="H4">
-        <v>18.56819922359202</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>31.92635874874348</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>24.26066596741275</v>
       </c>
       <c r="K4">
-        <v>0.03429617335131875</v>
+        <v>0.02497444761555835</v>
       </c>
       <c r="L4">
-        <v>0.03429617116624339</v>
+        <v>0.02497445155287478</v>
       </c>
       <c r="M4">
-        <v>0.03429617116622764</v>
+        <v>0.02497444526947228</v>
       </c>
       <c r="N4">
-        <v>-1.913352403839994E-11</v>
+        <v>-1.800673408189503E-09</v>
       </c>
       <c r="O4">
-        <v>-1.183241384860761E-09</v>
+        <v>-1.532737527183769E-10</v>
       </c>
       <c r="P4">
-        <v>-2.961823049768124E-09</v>
+        <v>-3.205274151471056E-11</v>
       </c>
       <c r="Q4">
-        <v>6.245210055344906E-15</v>
+        <v>2.489966760221551E-05</v>
       </c>
       <c r="R4">
-        <v>0.02727435072037382</v>
+        <v>-1.259213372975726E-13</v>
       </c>
       <c r="S4">
-        <v>-0.02722739450965298</v>
+        <v>1.244195916065612E-13</v>
       </c>
       <c r="T4">
-        <v>-6.944832291798275E-13</v>
+        <v>-4.46094077581308E-10</v>
       </c>
       <c r="U4">
-        <v>-2.073057245139365E-09</v>
+        <v>-1.176560881053774E-10</v>
       </c>
       <c r="V4">
-        <v>1.04617060320224E-09</v>
+        <v>-1.433659806502011E-10</v>
       </c>
       <c r="W4">
-        <v>7.831270967438806E-14</v>
+        <v>-0.03273276720547771</v>
       </c>
       <c r="X4">
-        <v>-0.01905042968220815</v>
+        <v>7.022148065687304E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.04267757163546167</v>
+        <v>7.327976323165202E-14</v>
       </c>
       <c r="Z4">
-        <v>-41.74430571758281</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-170.5649954175247</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>37.0387201988786</v>
       </c>
       <c r="AC4">
-        <v>-113.4372971683137</v>
+        <v>81.64434147530983</v>
       </c>
       <c r="AD4">
-        <v>-113.437294250614</v>
+        <v>81.64434107506575</v>
       </c>
       <c r="AE4">
-        <v>-113.4372942505931</v>
+        <v>81.64433895786765</v>
       </c>
       <c r="AF4">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992609</v>
       </c>
       <c r="AG4">
-        <v>1.000000000000132</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997249</v>
       </c>
       <c r="AI4">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="AJ4">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-5.141094698820842</v>
       </c>
       <c r="AM4">
-        <v>-149.4085172538034</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>130.8537654848539</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-8.312073893397944</v>
       </c>
       <c r="AP4">
-        <v>-148.3705990935352</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>124.0256852899936</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12682,130 +12682,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005545524518061288</v>
+        <v>0.0005815853128431323</v>
       </c>
       <c r="C2">
-        <v>0.0005545524493790885</v>
+        <v>0.000581585535319676</v>
       </c>
       <c r="D2">
-        <v>0.0005545524493790538</v>
+        <v>0.0005815850929120667</v>
       </c>
       <c r="E2">
-        <v>1.025341518640089</v>
+        <v>0.001968799053422836</v>
       </c>
       <c r="F2">
-        <v>0.002215210932155228</v>
+        <v>1.198845647906661</v>
       </c>
       <c r="G2">
-        <v>0.00221521093215428</v>
+        <v>0.9743634337683421</v>
       </c>
       <c r="H2">
-        <v>0.006403420146600709</v>
+        <v>0.006715568738534303</v>
       </c>
       <c r="I2">
-        <v>0.006403420118575661</v>
+        <v>0.006715571307472151</v>
       </c>
       <c r="J2">
-        <v>0.006403420118575261</v>
+        <v>0.006715566198989106</v>
       </c>
       <c r="K2">
-        <v>11.8396240359631</v>
+        <v>0.02273373326947909</v>
       </c>
       <c r="L2">
-        <v>0.02557905255983246</v>
+        <v>13.84307715071444</v>
       </c>
       <c r="M2">
-        <v>0.02557905255982151</v>
+        <v>11.25097981549361</v>
       </c>
       <c r="N2">
-        <v>0.003505218881447789</v>
+        <v>-0.003849887097177371</v>
       </c>
       <c r="O2">
-        <v>0.002897814781713285</v>
+        <v>-0.001280786499961501</v>
       </c>
       <c r="P2">
-        <v>-0.006398123810501221</v>
+        <v>0.005136072261752631</v>
       </c>
       <c r="Q2">
-        <v>-5.24226219027749</v>
+        <v>-0.005705328135890512</v>
       </c>
       <c r="R2">
-        <v>-0.02360900593715605</v>
+        <v>-7.18306739997969</v>
       </c>
       <c r="S2">
-        <v>0.0163861655847987</v>
+        <v>-4.738642056667806</v>
       </c>
       <c r="T2">
-        <v>0.003927594051237718</v>
+        <v>-0.005107780216243859</v>
       </c>
       <c r="U2">
-        <v>-0.005346759677857457</v>
+        <v>0.005406677792914938</v>
       </c>
       <c r="V2">
-        <v>0.0007027769436407765</v>
+        <v>-0.001086831050855677</v>
       </c>
       <c r="W2">
-        <v>-5.263811395243419</v>
+        <v>0.02488805845633592</v>
       </c>
       <c r="X2">
-        <v>0.006224351977143758</v>
+        <v>-7.202556200500958</v>
       </c>
       <c r="Y2">
-        <v>0.02528347169725863</v>
+        <v>-4.736174996522728</v>
       </c>
       <c r="Z2">
-        <v>-43.78646814992267</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-164.0419281637058</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>64.13570018318165</v>
       </c>
       <c r="AC2">
-        <v>136.0960115647501</v>
+        <v>-108.4603942815339</v>
       </c>
       <c r="AD2">
-        <v>64.5205419658088</v>
+        <v>15.88045091653239</v>
       </c>
       <c r="AE2">
-        <v>64.5205419657986</v>
+        <v>-115.8493810980392</v>
       </c>
       <c r="AF2">
-        <v>0.8379929791010424</v>
+        <v>0.9305405005570508</v>
       </c>
       <c r="AG2">
-        <v>1.000000000000763</v>
+        <v>0.7848521014139239</v>
       </c>
       <c r="AH2">
-        <v>0.9390604356298995</v>
+        <v>0.8463562973200961</v>
       </c>
       <c r="AI2">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="AJ2">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="AK2">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="AL2">
-        <v>-8.692698158235416</v>
+        <v>-2.070858898527459</v>
       </c>
       <c r="AM2">
-        <v>-118.4884237755319</v>
+        <v>-131.7373295207326</v>
       </c>
       <c r="AN2">
-        <v>116.7866489320772</v>
+        <v>112.9875977716212</v>
       </c>
       <c r="AO2">
-        <v>1.213531850035941</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP2">
-        <v>-130.2490184990389</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ2">
-        <v>121.5733531540493</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12813,130 +12813,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8165211221592247</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.057390965727649</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.8394791924992789</v>
       </c>
       <c r="E3">
-        <v>0.001107605548378915</v>
+        <v>0.0009843995371403029</v>
       </c>
       <c r="F3">
-        <v>0.001107605477811624</v>
+        <v>0.0009843996397531536</v>
       </c>
       <c r="G3">
-        <v>0.001107605477810971</v>
+        <v>0.0009843994972446235</v>
       </c>
       <c r="H3">
-        <v>9.428373793552874</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.20969917403073</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.693470755370967</v>
       </c>
       <c r="K3">
-        <v>0.01278952723024979</v>
+        <v>0.01136686675516194</v>
       </c>
       <c r="L3">
-        <v>0.01278952641540891</v>
+        <v>0.01136686794003308</v>
       </c>
       <c r="M3">
-        <v>0.01278952641540137</v>
+        <v>0.01136686629448631</v>
       </c>
       <c r="N3">
-        <v>-3.333533714895848</v>
+        <v>-9.385959156702559E-10</v>
       </c>
       <c r="O3">
-        <v>-1.782337540019558E-10</v>
+        <v>-5.590378272359511</v>
       </c>
       <c r="P3">
-        <v>-1.269461333479087E-09</v>
+        <v>-3.523626572760595</v>
       </c>
       <c r="Q3">
-        <v>-0.003604890475085971</v>
+        <v>0.00285266380469098</v>
       </c>
       <c r="R3">
-        <v>0.01180450302024063</v>
+        <v>-0.008210571545820335</v>
       </c>
       <c r="S3">
-        <v>-0.008193083177336651</v>
+        <v>0.005363064413071533</v>
       </c>
       <c r="T3">
-        <v>-3.333533715564022</v>
+        <v>-4.084611218320476E-10</v>
       </c>
       <c r="U3">
-        <v>-1.045318278903604E-09</v>
+        <v>-5.590378272847452</v>
       </c>
       <c r="V3">
-        <v>4.152960678659081E-10</v>
+        <v>-3.523626574080262</v>
       </c>
       <c r="W3">
-        <v>0.007169711607569794</v>
+        <v>-0.01244402942727826</v>
       </c>
       <c r="X3">
-        <v>-0.003112176299928946</v>
+        <v>0.001533828385472785</v>
       </c>
       <c r="Y3">
-        <v>-0.0126417357893298</v>
+        <v>0.004129533711782052</v>
       </c>
       <c r="Z3">
-        <v>-43.78646814992267</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-164.0419281637058</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>64.13570018318165</v>
       </c>
       <c r="AC3">
-        <v>-115.4794596006428</v>
+        <v>71.53960706970339</v>
       </c>
       <c r="AD3">
-        <v>-115.4794566829728</v>
+        <v>71.53960856887664</v>
       </c>
       <c r="AE3">
-        <v>-115.479456682939</v>
+        <v>71.53960265280799</v>
       </c>
       <c r="AF3">
-        <v>0.8318421429844037</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="AG3">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="AH3">
-        <v>0.9045377971462235</v>
+        <v>0.8516705368398013</v>
       </c>
       <c r="AI3">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="AJ3">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="AK3">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="AL3">
-        <v>7.181611621190969</v>
+        <v>-5.292660328418042</v>
       </c>
       <c r="AM3">
-        <v>-136.4394934069981</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN3">
-        <v>125.12124607394</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO3">
-        <v>1.213531850035941</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP3">
-        <v>-130.2490184990389</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ3">
-        <v>121.5733531540493</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12944,130 +12944,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8165211221592239</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.057390965727647</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8394791924992789</v>
       </c>
       <c r="E4">
-        <v>0.001107605548379091</v>
+        <v>0.0009843995371402378</v>
       </c>
       <c r="F4">
-        <v>0.001107605477811443</v>
+        <v>0.0009843996397531536</v>
       </c>
       <c r="G4">
-        <v>0.001107605477810971</v>
+        <v>0.0009843994972448826</v>
       </c>
       <c r="H4">
-        <v>9.428373793552865</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.20969917403071</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.693470755370967</v>
       </c>
       <c r="K4">
-        <v>0.01278952723025183</v>
+        <v>0.01136686675516119</v>
       </c>
       <c r="L4">
-        <v>0.01278952641540682</v>
+        <v>0.01136686794003308</v>
       </c>
       <c r="M4">
-        <v>0.01278952641540137</v>
+        <v>0.01136686629448931</v>
       </c>
       <c r="N4">
-        <v>-3.333533714895842</v>
+        <v>-9.385912746712015E-10</v>
       </c>
       <c r="O4">
-        <v>-1.782332581882412E-10</v>
+        <v>-5.590378272359504</v>
       </c>
       <c r="P4">
-        <v>-1.269464953007095E-09</v>
+        <v>-3.523626572760595</v>
       </c>
       <c r="Q4">
-        <v>-0.003604890475088942</v>
+        <v>0.002852663804688332</v>
       </c>
       <c r="R4">
-        <v>0.0118045030202383</v>
+        <v>-0.008210571545820335</v>
       </c>
       <c r="S4">
-        <v>-0.008193083177336651</v>
+        <v>0.005363064413075123</v>
       </c>
       <c r="T4">
-        <v>-3.333533715564021</v>
+        <v>-4.084730423484149E-10</v>
       </c>
       <c r="U4">
-        <v>-1.045315337986914E-09</v>
+        <v>-5.590378272847445</v>
       </c>
       <c r="V4">
-        <v>4.152907663511066E-10</v>
+        <v>-3.523626574080261</v>
       </c>
       <c r="W4">
-        <v>0.007169711607569732</v>
+        <v>-0.012444029427278</v>
       </c>
       <c r="X4">
-        <v>-0.00311217629992994</v>
+        <v>0.001533828385472785</v>
       </c>
       <c r="Y4">
-        <v>-0.0126417357893298</v>
+        <v>0.004129533711780312</v>
       </c>
       <c r="Z4">
-        <v>-43.78646814992267</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-164.0419281637058</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>64.13570018318165</v>
       </c>
       <c r="AC4">
-        <v>-115.4794596006619</v>
+        <v>71.53960706971472</v>
       </c>
       <c r="AD4">
-        <v>-115.4794566829655</v>
+        <v>71.53960856887664</v>
       </c>
       <c r="AE4">
-        <v>-115.479456682939</v>
+        <v>71.5396026528382</v>
       </c>
       <c r="AF4">
-        <v>0.8318421429844038</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="AG4">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="AH4">
-        <v>0.9045377971462233</v>
+        <v>0.851670536839801</v>
       </c>
       <c r="AI4">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="AJ4">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="AK4">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="AL4">
-        <v>7.181611621190973</v>
+        <v>-5.292660328418039</v>
       </c>
       <c r="AM4">
-        <v>-136.4394934069981</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN4">
-        <v>125.1212460739401</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO4">
-        <v>1.213531850035941</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP4">
-        <v>-130.2490184990389</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ4">
-        <v>121.5733531540493</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
   </sheetData>
@@ -13219,130 +13219,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005545524518061288</v>
+        <v>0.0005815853128431323</v>
       </c>
       <c r="C2">
-        <v>0.0005545524493790885</v>
+        <v>0.000581585535319676</v>
       </c>
       <c r="D2">
-        <v>0.0005545524493790538</v>
+        <v>0.0005815850929120667</v>
       </c>
       <c r="E2">
-        <v>1.025341518640089</v>
+        <v>0.001968799053422836</v>
       </c>
       <c r="F2">
-        <v>0.002215210932155228</v>
+        <v>1.198845647906661</v>
       </c>
       <c r="G2">
-        <v>0.00221521093215428</v>
+        <v>0.9743634337683421</v>
       </c>
       <c r="H2">
-        <v>0.006403420146600709</v>
+        <v>0.006715568738534303</v>
       </c>
       <c r="I2">
-        <v>0.006403420118575661</v>
+        <v>0.006715571307472151</v>
       </c>
       <c r="J2">
-        <v>0.006403420118575261</v>
+        <v>0.006715566198989106</v>
       </c>
       <c r="K2">
-        <v>11.8396240359631</v>
+        <v>0.02273373326947909</v>
       </c>
       <c r="L2">
-        <v>0.02557905255983246</v>
+        <v>13.84307715071444</v>
       </c>
       <c r="M2">
-        <v>0.02557905255982151</v>
+        <v>11.25097981549361</v>
       </c>
       <c r="N2">
-        <v>0.003505218881447789</v>
+        <v>-0.003849887097177371</v>
       </c>
       <c r="O2">
-        <v>0.002897814781713285</v>
+        <v>-0.001280786499961501</v>
       </c>
       <c r="P2">
-        <v>-0.006398123810501221</v>
+        <v>0.005136072261752631</v>
       </c>
       <c r="Q2">
-        <v>-5.24226219027749</v>
+        <v>-0.005705328135890512</v>
       </c>
       <c r="R2">
-        <v>-0.02360900593715605</v>
+        <v>-7.18306739997969</v>
       </c>
       <c r="S2">
-        <v>0.0163861655847987</v>
+        <v>-4.738642056667806</v>
       </c>
       <c r="T2">
-        <v>0.003927594051237718</v>
+        <v>-0.005107780216243859</v>
       </c>
       <c r="U2">
-        <v>-0.005346759677857457</v>
+        <v>0.005406677792914938</v>
       </c>
       <c r="V2">
-        <v>0.0007027769436407765</v>
+        <v>-0.001086831050855677</v>
       </c>
       <c r="W2">
-        <v>-5.263811395243419</v>
+        <v>0.02488805845633592</v>
       </c>
       <c r="X2">
-        <v>0.006224351977143758</v>
+        <v>-7.202556200500958</v>
       </c>
       <c r="Y2">
-        <v>0.02528347169725863</v>
+        <v>-4.736174996522728</v>
       </c>
       <c r="Z2">
-        <v>-43.78646814992267</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-164.0419281637058</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>64.13570018318165</v>
       </c>
       <c r="AC2">
-        <v>136.0960115647501</v>
+        <v>-108.4603942815339</v>
       </c>
       <c r="AD2">
-        <v>64.5205419658088</v>
+        <v>15.88045091653239</v>
       </c>
       <c r="AE2">
-        <v>64.5205419657986</v>
+        <v>-115.8493810980392</v>
       </c>
       <c r="AF2">
-        <v>0.8379929791010424</v>
+        <v>0.9305405005570508</v>
       </c>
       <c r="AG2">
-        <v>1.000000000000763</v>
+        <v>0.7848521014139239</v>
       </c>
       <c r="AH2">
-        <v>0.9390604356298995</v>
+        <v>0.8463562973200961</v>
       </c>
       <c r="AI2">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="AJ2">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="AK2">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="AL2">
-        <v>-8.692698158235416</v>
+        <v>-2.070858898527459</v>
       </c>
       <c r="AM2">
-        <v>-118.4884237755319</v>
+        <v>-131.7373295207326</v>
       </c>
       <c r="AN2">
-        <v>116.7866489320772</v>
+        <v>112.9875977716212</v>
       </c>
       <c r="AO2">
-        <v>1.213531850035941</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP2">
-        <v>-130.2490184990389</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ2">
-        <v>121.5733531540493</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13350,130 +13350,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8165211221592247</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.057390965727649</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.8394791924992789</v>
       </c>
       <c r="E3">
-        <v>0.001107605548378915</v>
+        <v>0.0009843995371403029</v>
       </c>
       <c r="F3">
-        <v>0.001107605477811624</v>
+        <v>0.0009843996397531536</v>
       </c>
       <c r="G3">
-        <v>0.001107605477810971</v>
+        <v>0.0009843994972446235</v>
       </c>
       <c r="H3">
-        <v>9.428373793552874</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.20969917403073</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.693470755370967</v>
       </c>
       <c r="K3">
-        <v>0.01278952723024979</v>
+        <v>0.01136686675516194</v>
       </c>
       <c r="L3">
-        <v>0.01278952641540891</v>
+        <v>0.01136686794003308</v>
       </c>
       <c r="M3">
-        <v>0.01278952641540137</v>
+        <v>0.01136686629448631</v>
       </c>
       <c r="N3">
-        <v>-3.333533714895848</v>
+        <v>-9.385959156702559E-10</v>
       </c>
       <c r="O3">
-        <v>-1.782337540019558E-10</v>
+        <v>-5.590378272359511</v>
       </c>
       <c r="P3">
-        <v>-1.269461333479087E-09</v>
+        <v>-3.523626572760595</v>
       </c>
       <c r="Q3">
-        <v>-0.003604890475085971</v>
+        <v>0.00285266380469098</v>
       </c>
       <c r="R3">
-        <v>0.01180450302024063</v>
+        <v>-0.008210571545820335</v>
       </c>
       <c r="S3">
-        <v>-0.008193083177336651</v>
+        <v>0.005363064413071533</v>
       </c>
       <c r="T3">
-        <v>-3.333533715564022</v>
+        <v>-4.084611218320476E-10</v>
       </c>
       <c r="U3">
-        <v>-1.045318278903604E-09</v>
+        <v>-5.590378272847452</v>
       </c>
       <c r="V3">
-        <v>4.152960678659081E-10</v>
+        <v>-3.523626574080262</v>
       </c>
       <c r="W3">
-        <v>0.007169711607569794</v>
+        <v>-0.01244402942727826</v>
       </c>
       <c r="X3">
-        <v>-0.003112176299928946</v>
+        <v>0.001533828385472785</v>
       </c>
       <c r="Y3">
-        <v>-0.0126417357893298</v>
+        <v>0.004129533711782052</v>
       </c>
       <c r="Z3">
-        <v>-43.78646814992267</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-164.0419281637058</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>64.13570018318165</v>
       </c>
       <c r="AC3">
-        <v>-115.4794596006428</v>
+        <v>71.53960706970339</v>
       </c>
       <c r="AD3">
-        <v>-115.4794566829728</v>
+        <v>71.53960856887664</v>
       </c>
       <c r="AE3">
-        <v>-115.479456682939</v>
+        <v>71.53960265280799</v>
       </c>
       <c r="AF3">
-        <v>0.8318421429844037</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="AG3">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="AH3">
-        <v>0.9045377971462235</v>
+        <v>0.8516705368398013</v>
       </c>
       <c r="AI3">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="AJ3">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="AK3">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="AL3">
-        <v>7.181611621190969</v>
+        <v>-5.292660328418042</v>
       </c>
       <c r="AM3">
-        <v>-136.4394934069981</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN3">
-        <v>125.12124607394</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO3">
-        <v>1.213531850035941</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP3">
-        <v>-130.2490184990389</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ3">
-        <v>121.5733531540493</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13481,130 +13481,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8165211221592239</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.057390965727647</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8394791924992789</v>
       </c>
       <c r="E4">
-        <v>0.001107605548379091</v>
+        <v>0.0009843995371402378</v>
       </c>
       <c r="F4">
-        <v>0.001107605477811443</v>
+        <v>0.0009843996397531536</v>
       </c>
       <c r="G4">
-        <v>0.001107605477810971</v>
+        <v>0.0009843994972448826</v>
       </c>
       <c r="H4">
-        <v>9.428373793552865</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.20969917403071</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.693470755370967</v>
       </c>
       <c r="K4">
-        <v>0.01278952723025183</v>
+        <v>0.01136686675516119</v>
       </c>
       <c r="L4">
-        <v>0.01278952641540682</v>
+        <v>0.01136686794003308</v>
       </c>
       <c r="M4">
-        <v>0.01278952641540137</v>
+        <v>0.01136686629448931</v>
       </c>
       <c r="N4">
-        <v>-3.333533714895842</v>
+        <v>-9.385912746712015E-10</v>
       </c>
       <c r="O4">
-        <v>-1.782332581882412E-10</v>
+        <v>-5.590378272359504</v>
       </c>
       <c r="P4">
-        <v>-1.269464953007095E-09</v>
+        <v>-3.523626572760595</v>
       </c>
       <c r="Q4">
-        <v>-0.003604890475088942</v>
+        <v>0.002852663804688332</v>
       </c>
       <c r="R4">
-        <v>0.0118045030202383</v>
+        <v>-0.008210571545820335</v>
       </c>
       <c r="S4">
-        <v>-0.008193083177336651</v>
+        <v>0.005363064413075123</v>
       </c>
       <c r="T4">
-        <v>-3.333533715564021</v>
+        <v>-4.084730423484149E-10</v>
       </c>
       <c r="U4">
-        <v>-1.045315337986914E-09</v>
+        <v>-5.590378272847445</v>
       </c>
       <c r="V4">
-        <v>4.152907663511066E-10</v>
+        <v>-3.523626574080261</v>
       </c>
       <c r="W4">
-        <v>0.007169711607569732</v>
+        <v>-0.012444029427278</v>
       </c>
       <c r="X4">
-        <v>-0.00311217629992994</v>
+        <v>0.001533828385472785</v>
       </c>
       <c r="Y4">
-        <v>-0.0126417357893298</v>
+        <v>0.004129533711780312</v>
       </c>
       <c r="Z4">
-        <v>-43.78646814992267</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-164.0419281637058</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>64.13570018318165</v>
       </c>
       <c r="AC4">
-        <v>-115.4794596006619</v>
+        <v>71.53960706971472</v>
       </c>
       <c r="AD4">
-        <v>-115.4794566829655</v>
+        <v>71.53960856887664</v>
       </c>
       <c r="AE4">
-        <v>-115.479456682939</v>
+        <v>71.5396026528382</v>
       </c>
       <c r="AF4">
-        <v>0.8318421429844038</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="AG4">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="AH4">
-        <v>0.9045377971462233</v>
+        <v>0.851670536839801</v>
       </c>
       <c r="AI4">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="AJ4">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="AK4">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="AL4">
-        <v>7.181611621190973</v>
+        <v>-5.292660328418039</v>
       </c>
       <c r="AM4">
-        <v>-136.4394934069981</v>
+        <v>-112.3238428218692</v>
       </c>
       <c r="AN4">
-        <v>125.1212460739401</v>
+        <v>106.1154176972715</v>
       </c>
       <c r="AO4">
-        <v>1.213531850035941</v>
+        <v>-5.549016348167304</v>
       </c>
       <c r="AP4">
-        <v>-130.2490184990389</v>
+        <v>-119.0419281637489</v>
       </c>
       <c r="AQ4">
-        <v>121.5733531540493</v>
+        <v>109.1357001831912</v>
       </c>
     </row>
   </sheetData>
